--- a/Mẫu_ke hoach-lam-viec-nhom.xlsx
+++ b/Mẫu_ke hoach-lam-viec-nhom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -74,16 +74,7 @@
     <t>Lý Trần Hồng Minh</t>
   </si>
   <si>
-    <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase xem Flashsale, bảo trì Flashsale.</t>
-  </si>
-  <si>
-    <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase xem danh mục, bảo trì danh mục.</t>
-  </si>
-  <si>
     <t>Đỗ Trung Phong</t>
-  </si>
-  <si>
-    <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase xem sách theo thể loại, bảo trì sách.</t>
   </si>
   <si>
     <t>Trần Minh Thắng</t>
@@ -194,7 +185,25 @@
     <t>Nguyễn Ngọc Hải</t>
   </si>
   <si>
-    <t>in  process</t>
+    <t>15/10/2022</t>
+  </si>
+  <si>
+    <t>Xác định usecase và mối q.</t>
+  </si>
+  <si>
+    <t>Vẽ biểu đồ use case tổng quát và biểu đồ phân rã</t>
+  </si>
+  <si>
+    <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase của tất cả các use case</t>
+  </si>
+  <si>
+    <t>16/10/2022</t>
+  </si>
+  <si>
+    <t>23/10/2022</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -592,8 +601,8 @@
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -637,7 +646,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -667,7 +676,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -697,7 +706,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -727,7 +736,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -809,16 +818,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>11</v>
@@ -855,16 +864,16 @@
         <v>13</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>11</v>
@@ -901,22 +910,22 @@
         <v>14</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>11</v>
@@ -939,24 +948,24 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C10" s="18">
-        <v>44863</v>
+        <v>44571</v>
       </c>
       <c r="D10" s="18">
-        <v>44863</v>
+        <v>44571</v>
       </c>
       <c r="E10" s="18">
-        <v>44876</v>
+        <v>44752</v>
       </c>
       <c r="F10" s="18">
-        <v>44876</v>
+        <v>44752</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -965,7 +974,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -984,32 +993,34 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C11" s="18">
-        <v>44863</v>
+        <v>44783</v>
       </c>
       <c r="D11" s="18">
-        <v>44863</v>
+        <v>44783</v>
       </c>
-      <c r="E11" s="18">
-        <v>44876</v>
+      <c r="E11" s="18" t="s">
+        <v>53</v>
       </c>
-      <c r="F11" s="18">
-        <v>44876</v>
+      <c r="F11" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1027,32 +1038,34 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
-      <c r="C12" s="18">
-        <v>44863</v>
+      <c r="C12" s="18" t="s">
+        <v>57</v>
       </c>
-      <c r="D12" s="18">
-        <v>44863</v>
+      <c r="D12" s="18" t="s">
+        <v>57</v>
       </c>
-      <c r="E12" s="18">
-        <v>44876</v>
+      <c r="E12" s="18" t="s">
+        <v>58</v>
       </c>
-      <c r="F12" s="18">
-        <v>44876</v>
+      <c r="F12" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1075,7 +1088,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="18">
         <v>44863</v>
@@ -1093,7 +1106,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
@@ -1119,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="18">
         <v>44863</v>
@@ -1137,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="1"/>
@@ -1163,7 +1176,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" s="18">
         <v>44863</v>
@@ -1181,7 +1194,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
@@ -1207,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="19">
         <v>44877</v>
@@ -1228,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1253,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="19">
         <v>44877</v>
@@ -1271,7 +1284,7 @@
         <v>11</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="1"/>
@@ -1297,7 +1310,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" s="19">
         <v>44877</v>
@@ -1315,7 +1328,7 @@
         <v>11</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="1"/>
@@ -1341,7 +1354,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" s="19">
         <v>44877</v>
@@ -1359,7 +1372,7 @@
         <v>11</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="1"/>
@@ -1385,7 +1398,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" s="19">
         <v>44877</v>
@@ -1403,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="1"/>
@@ -1429,7 +1442,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C21" s="19">
         <v>44877</v>
@@ -1447,7 +1460,7 @@
         <v>11</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
@@ -1473,7 +1486,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" s="17">
         <v>44891</v>
@@ -1517,7 +1530,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" s="17">
         <v>44891</v>
@@ -1535,7 +1548,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="1"/>
@@ -1561,7 +1574,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C24" s="17">
         <v>44891</v>
@@ -1579,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="1"/>
@@ -1605,7 +1618,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="17">
         <v>44891</v>
@@ -1623,7 +1636,7 @@
         <v>11</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
@@ -1649,7 +1662,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="17">
         <v>44891</v>
@@ -1667,7 +1680,7 @@
         <v>11</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="1"/>
@@ -1693,7 +1706,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27" s="17">
         <v>44891</v>
@@ -1711,7 +1724,7 @@
         <v>11</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="1"/>
@@ -1737,7 +1750,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C28" s="17">
         <v>44905</v>
@@ -1781,7 +1794,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C29" s="17">
         <v>44905</v>
@@ -1799,7 +1812,7 @@
         <v>11</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="1"/>
@@ -1825,7 +1838,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C30" s="17">
         <v>44905</v>
@@ -1843,7 +1856,7 @@
         <v>11</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="1"/>
@@ -1869,7 +1882,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" s="17">
         <v>44905</v>
@@ -1887,7 +1900,7 @@
         <v>11</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="1"/>
@@ -1913,7 +1926,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C32" s="17">
         <v>44905</v>
@@ -1931,7 +1944,7 @@
         <v>11</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="1"/>
@@ -1957,7 +1970,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C33" s="17">
         <v>44905</v>
@@ -1975,7 +1988,7 @@
         <v>11</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="1"/>
@@ -2001,7 +2014,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C34" s="17">
         <v>44926</v>

--- a/Mẫu_ke hoach-lam-viec-nhom.xlsx
+++ b/Mẫu_ke hoach-lam-viec-nhom.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\năm học mới\thực tập cơ sở ngành\Nhom5_TTCSN\Bao cao TTCSN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duytr\Documents\Zalo Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB18CD11-4FB2-4D88-8935-97F47B871B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế hoạch" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="77">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -71,87 +72,6 @@
     <t>Tổng hợp công việc của các thành viên để hoàn thiện chương 1 BTL</t>
   </si>
   <si>
-    <t>Lý Trần Hồng Minh</t>
-  </si>
-  <si>
-    <t>Đỗ Trung Phong</t>
-  </si>
-  <si>
-    <t>Trần Minh Thắng</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ usecase,mô tả usecase xem sách theo xu hướng,bảo trì xu hướng.</t>
-  </si>
-  <si>
-    <t>Ngô Thế Quyền</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ usecase,mô tả usecase xem thể loại sách theo nhóm sách, bảo trì nhóm sách.</t>
-  </si>
-  <si>
-    <t>Lưu Cung Minh</t>
-  </si>
-  <si>
-    <t>Tổng hợp và viết báo cáo chương II</t>
-  </si>
-  <si>
-    <t>Xác định các yêu cầu về dữ liệu</t>
-  </si>
-  <si>
-    <t>Chương trình có sự phức tạo cụ thể do đó cần có thời gian tìm hiểu kĩ càng hơn</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ thực thể liên kết mức logic</t>
-  </si>
-  <si>
-    <t>Thiết kế các bảng</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ thực thể liên kết mức vật lý</t>
-  </si>
-  <si>
-    <t>Tổng hợp và viết báo cáo chương 3</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích usecase xem Flashsale, bảo trì Flashsale.</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích usecase xem danh mục, bảo trì danh mục.</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích usecase xem sách theo thể loại, bảo trì sách,vẽ biểu đồ cho các lớp entity của hệ thống.</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích usecase xem sách theo xu hướng,bảo trì xu hướng, vẽ biểu đồ các lớp phân tích cho nhóm usecase chính và usecase thứ cấp.</t>
-  </si>
-  <si>
-    <t>Vẽ biểu đồ trình tự và lớp phân tích usecase xem thể loại sách theo nhóm sách, bảo trì nhóm sách.</t>
-  </si>
-  <si>
-    <t>Tổng hợp và viết báo cáo chương 4</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình của usecase xem Flashsale, bảo trì Flashsale.</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình của usecase xem danh mục, bảo trì danh mục.</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình của usecase xem sách theo thể loại, bảo trì sách.</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình của usecase xem sách theo xu hướng, bảo trì xu hướng.</t>
-  </si>
-  <si>
-    <t>Vẽ hình dung màn hình, biểu đồ các lớp màn hình và biểu đồ cộng tác màn hình của usecase xem thể loại sách theo nhóm sách, bảo trì nhóm sách.</t>
-  </si>
-  <si>
-    <t>Tổng hợp và viết báo cáo chương 5</t>
-  </si>
-  <si>
-    <t>Viết báo cáo bài tập lớn</t>
-  </si>
-  <si>
     <t>Ngày kết thúc - End date: 24/12/2024</t>
   </si>
   <si>
@@ -179,38 +99,170 @@
     <t>23/09/2024</t>
   </si>
   <si>
-    <t>29/09/2024</t>
-  </si>
-  <si>
     <t>Nguyễn Ngọc Hải</t>
-  </si>
-  <si>
-    <t>15/10/2022</t>
-  </si>
-  <si>
-    <t>Xác định usecase và mối q.</t>
   </si>
   <si>
     <t>Vẽ biểu đồ use case tổng quát và biểu đồ phân rã</t>
   </si>
   <si>
-    <t>Xác định usecase và mối quan hệ giữa các use case,mô tả usecase của tất cả các use case</t>
+    <t>Xác định tác nhân của hệ thống</t>
   </si>
   <si>
-    <t>16/10/2022</t>
+    <t>18/10/2024</t>
   </si>
   <si>
-    <t>23/10/2022</t>
+    <t>Trịnh Văn Duy</t>
   </si>
   <si>
-    <t>D</t>
+    <t>Trịnh Công Duy</t>
+  </si>
+  <si>
+    <t>Trịnh Văn Duy    Trịnh Công Duy</t>
+  </si>
+  <si>
+    <t>Xác định các ca sử dụng</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hào    Nguyễn Ngọc Hải</t>
+  </si>
+  <si>
+    <t>19/10/2024</t>
+  </si>
+  <si>
+    <t>25/10/2024</t>
+  </si>
+  <si>
+    <t>Mô tả chi tiết ,biểu đồ lớp phân tích ,biểu dồ trình tự mô tả chi tiết use case tìm kiếm</t>
+  </si>
+  <si>
+    <t>26/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mô tả chi tiết ,biểu đồ lớp phân tích ,biểu dồ trình tự mô tả chi tiết use case đăng kí </t>
+  </si>
+  <si>
+    <t>Mô tả chi tiết ,biểu đồ lớp phân tích ,biểu dồ trình tự mô tả chi tiết use case nộp CV</t>
+  </si>
+  <si>
+    <t>Mô tả chi tiết ,biểu đồ lớp phân tích ,biểu dồ trình tự mô tả chi tiết use case đăng nhập</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hào</t>
+  </si>
+  <si>
+    <t>Mô tả chi tiết ,biểu đồ lớp phân tích ,biểu dồ trình tự mô tả chi tiết use case xem chi tiết Job</t>
+  </si>
+  <si>
+    <t>Mô tả chi tiết ,biểu đồ lớp phân tích ,biểu dồ trình tự mô tả chi tiết use case quản lý Job</t>
+  </si>
+  <si>
+    <t>Mô tả chi tiết ,biểu đồ lớp phân tích ,biểu dồ trình tự mô tả chi tiết use case phản hồi CV</t>
+  </si>
+  <si>
+    <t>Mô tả chi tiết ,biểu đồ lớp phân tích ,biểu dồ trình tự mô tả chi tiết use case quản lý CV</t>
+  </si>
+  <si>
+    <t>Vẽ sơ đồ dữ liệu quan hệ</t>
+  </si>
+  <si>
+    <t>15/11/2024</t>
+  </si>
+  <si>
+    <t>Trịnh Văn Duy  Nguyễn ngọc Hải</t>
+  </si>
+  <si>
+    <t>Chi tiết bảng dữ liệu</t>
+  </si>
+  <si>
+    <t>Trịnh Công Duy    Nguyễn Văn Hào</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện đang nhập user</t>
+  </si>
+  <si>
+    <t>16/11/2024</t>
+  </si>
+  <si>
+    <t>22/11/2024</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện đăng nhập nhà tuyển dụng</t>
+  </si>
+  <si>
+    <t>Giới thiệu Visual Studio Code</t>
+  </si>
+  <si>
+    <t>23/11/2024</t>
+  </si>
+  <si>
+    <t>29/11/2024</t>
+  </si>
+  <si>
+    <t>Giới thiệu Mongo</t>
+  </si>
+  <si>
+    <t>Giới thiệu ngôn ngữ javaScript , Css</t>
+  </si>
+  <si>
+    <t>Giới thiệu ngôn ngữ React</t>
+  </si>
+  <si>
+    <t>Phát triển chức năng tìm kiếm</t>
+  </si>
+  <si>
+    <t>30/11/2024</t>
+  </si>
+  <si>
+    <t>Phát triển chức năng Đăng ký</t>
+  </si>
+  <si>
+    <t>Phát triển chức năng  Nộp CV</t>
+  </si>
+  <si>
+    <t>Phát triển chức năng Đăng nhập</t>
+  </si>
+  <si>
+    <t>30/12/2024</t>
+  </si>
+  <si>
+    <t>13/12/2024</t>
+  </si>
+  <si>
+    <t>Phát triển chức năng xem chi tiết Job</t>
+  </si>
+  <si>
+    <t>Phát triển chức năng Quản lý Job</t>
+  </si>
+  <si>
+    <t>Phát triển chức năng Phản hồi CV</t>
+  </si>
+  <si>
+    <t>Phát triển chức năng Quản lý CV</t>
+  </si>
+  <si>
+    <t>Kiểm thử hệ thống</t>
+  </si>
+  <si>
+    <t>14/12/2024</t>
+  </si>
+  <si>
+    <t>20/12/2024</t>
+  </si>
+  <si>
+    <t>Tổng hợp hoàn thiện báo cáo</t>
+  </si>
+  <si>
+    <t>21/12/2024</t>
+  </si>
+  <si>
+    <t>29/12/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -243,13 +295,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -270,21 +315,15 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -307,11 +346,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -334,18 +397,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -361,25 +412,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,37 +661,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="12" customWidth="1"/>
     <col min="3" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="26" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -645,17 +711,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="A2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -675,17 +741,17 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="A3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -705,17 +771,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="A4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -735,17 +801,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="A5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -768,7 +834,7 @@
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -814,20 +880,20 @@
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>49</v>
+      <c r="C7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>11</v>
@@ -860,20 +926,20 @@
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>50</v>
+      <c r="C8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>11</v>
@@ -906,26 +972,26 @@
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>51</v>
+      <c r="C9" s="13">
+        <v>45422</v>
+      </c>
+      <c r="D9" s="13">
+        <v>45422</v>
+      </c>
+      <c r="E9" s="13">
+        <v>45636</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45636</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>11</v>
@@ -952,26 +1018,26 @@
       <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="18">
-        <v>44571</v>
-      </c>
-      <c r="D10" s="18">
-        <v>44571</v>
-      </c>
-      <c r="E10" s="18">
-        <v>44752</v>
-      </c>
-      <c r="F10" s="18">
-        <v>44752</v>
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="13">
+        <v>45636</v>
+      </c>
+      <c r="D10" s="13">
+        <v>45636</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>11</v>
@@ -992,35 +1058,18 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>5</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="18">
-        <v>44783</v>
-      </c>
-      <c r="D11" s="18">
-        <v>44783</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1037,33 +1086,34 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>6</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>5</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="23">
+        <v>45636</v>
+      </c>
+      <c r="D12" s="23">
+        <v>45636</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="H12" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="1"/>
@@ -1082,33 +1132,36 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>7</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="18">
-        <v>44863</v>
-      </c>
-      <c r="D13" s="18">
-        <v>44863</v>
-      </c>
-      <c r="E13" s="18">
-        <v>44876</v>
-      </c>
-      <c r="F13" s="18">
-        <v>44876</v>
+        <v>6</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1125,34 +1178,35 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>8</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="18">
-        <v>44863</v>
-      </c>
-      <c r="D14" s="18">
-        <v>44863</v>
-      </c>
-      <c r="E14" s="18">
-        <v>44876</v>
-      </c>
-      <c r="F14" s="18">
-        <v>44876</v>
+        <v>5</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="14">
+        <v>45302</v>
+      </c>
+      <c r="F14" s="14">
+        <v>45302</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1169,34 +1223,35 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="18">
-        <v>44863</v>
-      </c>
-      <c r="D15" s="18">
-        <v>44863</v>
-      </c>
-      <c r="E15" s="18">
-        <v>44876</v>
-      </c>
-      <c r="F15" s="18">
-        <v>44876</v>
+        <v>6</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="14">
+        <v>45302</v>
+      </c>
+      <c r="F15" s="14">
+        <v>45302</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1213,35 +1268,34 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:26" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>10</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="19">
-        <v>44877</v>
-      </c>
-      <c r="D16" s="19">
-        <v>44877</v>
-      </c>
-      <c r="E16" s="19">
-        <v>44891</v>
-      </c>
-      <c r="F16" s="19">
-        <v>44891</v>
-      </c>
-      <c r="G16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="14">
+        <v>45302</v>
+      </c>
+      <c r="F16" s="14">
+        <v>45302</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="8" t="s">
         <v>24</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1259,34 +1313,35 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    </row>
+    <row r="17" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>8</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="14">
+        <v>45302</v>
+      </c>
+      <c r="F17" s="14">
+        <v>45302</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="19">
-        <v>44877</v>
-      </c>
-      <c r="D17" s="19">
-        <v>44877</v>
-      </c>
-      <c r="E17" s="19">
-        <v>44891</v>
-      </c>
-      <c r="F17" s="19">
-        <v>44891</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="9"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1303,34 +1358,35 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>12</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="19">
-        <v>44877</v>
-      </c>
-      <c r="D18" s="19">
-        <v>44877</v>
-      </c>
-      <c r="E18" s="19">
-        <v>44891</v>
-      </c>
-      <c r="F18" s="19">
-        <v>44891</v>
-      </c>
-      <c r="G18" s="6" t="s">
+    </row>
+    <row r="18" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>9</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="14">
+        <v>45333</v>
+      </c>
+      <c r="D18" s="14">
+        <v>45333</v>
+      </c>
+      <c r="E18" s="14">
+        <v>45515</v>
+      </c>
+      <c r="F18" s="14">
+        <v>45515</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1347,34 +1403,35 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>13</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="19">
-        <v>44877</v>
-      </c>
-      <c r="D19" s="19">
-        <v>44877</v>
-      </c>
-      <c r="E19" s="19">
-        <v>44891</v>
-      </c>
-      <c r="F19" s="19">
-        <v>44891</v>
-      </c>
-      <c r="G19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="14">
+        <v>45333</v>
+      </c>
+      <c r="D19" s="14">
+        <v>45333</v>
+      </c>
+      <c r="E19" s="14">
+        <v>45515</v>
+      </c>
+      <c r="F19" s="14">
+        <v>45515</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1391,34 +1448,35 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>14</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="19">
-        <v>44877</v>
-      </c>
-      <c r="D20" s="19">
-        <v>44877</v>
-      </c>
-      <c r="E20" s="19">
-        <v>44891</v>
-      </c>
-      <c r="F20" s="19">
-        <v>44891</v>
-      </c>
-      <c r="G20" s="6" t="s">
+    </row>
+    <row r="20" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
         <v>11</v>
       </c>
+      <c r="B20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="14">
+        <v>45333</v>
+      </c>
+      <c r="D20" s="14">
+        <v>45333</v>
+      </c>
+      <c r="E20" s="14">
+        <v>45515</v>
+      </c>
+      <c r="F20" s="14">
+        <v>45515</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1435,34 +1493,35 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>15</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="19">
-        <v>44877</v>
-      </c>
-      <c r="D21" s="19">
-        <v>44877</v>
-      </c>
-      <c r="E21" s="19">
-        <v>44891</v>
-      </c>
-      <c r="F21" s="19">
-        <v>44891</v>
-      </c>
-      <c r="G21" s="6" t="s">
+    </row>
+    <row r="21" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>12</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="14">
+        <v>45333</v>
+      </c>
+      <c r="D21" s="14">
+        <v>45333</v>
+      </c>
+      <c r="E21" s="14">
+        <v>45515</v>
+      </c>
+      <c r="F21" s="14">
+        <v>45515</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1479,34 +1538,35 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>16</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="17">
-        <v>44891</v>
-      </c>
-      <c r="D22" s="17">
-        <v>44891</v>
-      </c>
-      <c r="E22" s="17">
-        <v>44905</v>
-      </c>
-      <c r="F22" s="17">
-        <v>44905</v>
-      </c>
-      <c r="G22" s="6" t="s">
+    </row>
+    <row r="22" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>13</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="14">
+        <v>45546</v>
+      </c>
+      <c r="D22" s="14">
+        <v>45546</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1523,34 +1583,35 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>17</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="17">
-        <v>44891</v>
-      </c>
-      <c r="D23" s="17">
-        <v>44891</v>
-      </c>
-      <c r="E23" s="17">
-        <v>44905</v>
-      </c>
-      <c r="F23" s="17">
-        <v>44905</v>
-      </c>
-      <c r="G23" s="6" t="s">
+    </row>
+    <row r="23" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>14</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="14">
+        <v>45546</v>
+      </c>
+      <c r="D23" s="14">
+        <v>45546</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1567,34 +1628,35 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="1:26" ht="66" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>18</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="17">
-        <v>44891</v>
-      </c>
-      <c r="D24" s="17">
-        <v>44891</v>
-      </c>
-      <c r="E24" s="17">
-        <v>44905</v>
-      </c>
-      <c r="F24" s="17">
-        <v>44905</v>
-      </c>
-      <c r="G24" s="6" t="s">
+    </row>
+    <row r="24" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>15</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1611,34 +1673,35 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="1:26" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>19</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="17">
-        <v>44891</v>
-      </c>
-      <c r="D25" s="17">
-        <v>44891</v>
-      </c>
-      <c r="E25" s="17">
-        <v>44905</v>
-      </c>
-      <c r="F25" s="17">
-        <v>44905</v>
-      </c>
-      <c r="G25" s="6" t="s">
+    </row>
+    <row r="25" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>16</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1655,34 +1718,35 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>20</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="17">
-        <v>44891</v>
-      </c>
-      <c r="D26" s="17">
-        <v>44891</v>
-      </c>
-      <c r="E26" s="17">
-        <v>44905</v>
-      </c>
-      <c r="F26" s="17">
-        <v>44905</v>
-      </c>
-      <c r="G26" s="6" t="s">
+    </row>
+    <row r="26" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>17</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1699,34 +1763,35 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>21</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="17">
-        <v>44891</v>
-      </c>
-      <c r="D27" s="17">
-        <v>44891</v>
-      </c>
-      <c r="E27" s="17">
-        <v>44905</v>
-      </c>
-      <c r="F27" s="17">
-        <v>44905</v>
-      </c>
-      <c r="G27" s="6" t="s">
+    </row>
+    <row r="27" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>18</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1743,34 +1808,35 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="1:26" ht="66" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>22</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="17">
-        <v>44905</v>
-      </c>
-      <c r="D28" s="17">
-        <v>44905</v>
-      </c>
-      <c r="E28" s="17">
-        <v>44919</v>
-      </c>
-      <c r="F28" s="17">
-        <v>44919</v>
-      </c>
-      <c r="G28" s="6" t="s">
+    </row>
+    <row r="28" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>19</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1787,34 +1853,35 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="1:26" ht="66" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>23</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="17">
-        <v>44905</v>
-      </c>
-      <c r="D29" s="17">
-        <v>44905</v>
-      </c>
-      <c r="E29" s="17">
-        <v>44919</v>
-      </c>
-      <c r="F29" s="17">
-        <v>44919</v>
-      </c>
-      <c r="G29" s="6" t="s">
+    </row>
+    <row r="29" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>20</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1831,34 +1898,35 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="1:26" ht="66" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>24</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="17">
-        <v>44905</v>
-      </c>
-      <c r="D30" s="17">
-        <v>44905</v>
-      </c>
-      <c r="E30" s="17">
-        <v>44919</v>
-      </c>
-      <c r="F30" s="17">
-        <v>44919</v>
-      </c>
-      <c r="G30" s="6" t="s">
+    </row>
+    <row r="30" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <v>21</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="14">
+        <v>45455</v>
+      </c>
+      <c r="F30" s="14">
+        <v>45455</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="6"/>
+      <c r="H30" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1875,34 +1943,35 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-    </row>
-    <row r="31" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>25</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="17">
-        <v>44905</v>
-      </c>
-      <c r="D31" s="17">
-        <v>44905</v>
-      </c>
-      <c r="E31" s="17">
-        <v>44919</v>
-      </c>
-      <c r="F31" s="17">
-        <v>44919</v>
-      </c>
-      <c r="G31" s="6" t="s">
+    </row>
+    <row r="31" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>22</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="14">
+        <v>45455</v>
+      </c>
+      <c r="F31" s="14">
+        <v>45455</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1919,34 +1988,35 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>26</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="17">
-        <v>44905</v>
-      </c>
-      <c r="D32" s="17">
-        <v>44905</v>
-      </c>
-      <c r="E32" s="17">
-        <v>44919</v>
-      </c>
-      <c r="F32" s="17">
-        <v>44919</v>
-      </c>
-      <c r="G32" s="6" t="s">
+    </row>
+    <row r="32" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <v>23</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="14">
+        <v>45455</v>
+      </c>
+      <c r="F32" s="14">
+        <v>45455</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1963,34 +2033,35 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-    </row>
-    <row r="33" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>27</v>
-      </c>
-      <c r="B33" s="11" t="s">
+    </row>
+    <row r="33" spans="1:26" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>24</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="14">
+        <v>45455</v>
+      </c>
+      <c r="F33" s="14">
+        <v>45455</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="17">
-        <v>44905</v>
-      </c>
-      <c r="D33" s="17">
-        <v>44905</v>
-      </c>
-      <c r="E33" s="17">
-        <v>44919</v>
-      </c>
-      <c r="F33" s="17">
-        <v>44919</v>
-      </c>
-      <c r="G33" s="6" t="s">
+      <c r="I33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="6"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2007,34 +2078,35 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+    </row>
+    <row r="34" spans="1:26" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>25</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="14">
+        <v>45485</v>
+      </c>
+      <c r="D34" s="14">
+        <v>45485</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="17">
-        <v>44926</v>
-      </c>
-      <c r="D34" s="17">
-        <v>44926</v>
-      </c>
-      <c r="E34" s="17">
-        <v>44930</v>
-      </c>
-      <c r="F34" s="17">
-        <v>44930</v>
-      </c>
-      <c r="G34" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="6"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2051,18 +2123,35 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+    </row>
+    <row r="35" spans="1:26" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>26</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="14">
+        <v>45485</v>
+      </c>
+      <c r="D35" s="14">
+        <v>45485</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2079,18 +2168,35 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+    </row>
+    <row r="36" spans="1:26" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <v>27</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="14">
+        <v>45485</v>
+      </c>
+      <c r="D36" s="14">
+        <v>45485</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2107,18 +2213,35 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+    </row>
+    <row r="37" spans="1:26" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
+        <v>28</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="14">
+        <v>45485</v>
+      </c>
+      <c r="D37" s="14">
+        <v>45485</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2135,18 +2258,35 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+    </row>
+    <row r="38" spans="1:26" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
+        <v>29</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2163,18 +2303,31 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+    </row>
+    <row r="39" spans="1:26" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
+        <v>30</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="6"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2191,7 +2344,6 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -7122,16 +7274,16 @@
       <c r="Z215" s="1"/>
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A216" s="4"/>
-      <c r="B216" s="15"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
-      <c r="E216" s="4"/>
-      <c r="F216" s="4"/>
-      <c r="G216" s="4"/>
-      <c r="H216" s="4"/>
-      <c r="I216" s="4"/>
-      <c r="J216" s="4"/>
+      <c r="A216" s="1"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
@@ -7150,16 +7302,16 @@
       <c r="Z216" s="1"/>
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A217" s="4"/>
-      <c r="B217" s="15"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
-      <c r="E217" s="4"/>
-      <c r="F217" s="4"/>
-      <c r="G217" s="4"/>
-      <c r="H217" s="4"/>
-      <c r="I217" s="4"/>
-      <c r="J217" s="4"/>
+      <c r="A217" s="1"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
@@ -7178,16 +7330,16 @@
       <c r="Z217" s="1"/>
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A218" s="4"/>
-      <c r="B218" s="15"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
-      <c r="E218" s="4"/>
-      <c r="F218" s="4"/>
-      <c r="G218" s="4"/>
-      <c r="H218" s="4"/>
-      <c r="I218" s="4"/>
-      <c r="J218" s="4"/>
+      <c r="A218" s="1"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
@@ -7206,64 +7358,64 @@
       <c r="Z218" s="1"/>
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A219" s="4"/>
-      <c r="B219" s="15"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
-      <c r="E219" s="4"/>
-      <c r="F219" s="4"/>
-      <c r="G219" s="4"/>
-      <c r="H219" s="4"/>
-      <c r="I219" s="4"/>
-      <c r="J219" s="4"/>
-      <c r="K219" s="4"/>
-      <c r="L219" s="4"/>
-      <c r="M219" s="4"/>
-      <c r="N219" s="4"/>
-      <c r="O219" s="4"/>
-      <c r="P219" s="4"/>
-      <c r="Q219" s="4"/>
-      <c r="R219" s="4"/>
-      <c r="S219" s="4"/>
-      <c r="T219" s="4"/>
-      <c r="U219" s="4"/>
-      <c r="V219" s="4"/>
-      <c r="W219" s="4"/>
-      <c r="X219" s="4"/>
-      <c r="Y219" s="4"/>
-      <c r="Z219" s="4"/>
+      <c r="A219" s="1"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+      <c r="U219" s="1"/>
+      <c r="V219" s="1"/>
+      <c r="W219" s="1"/>
+      <c r="X219" s="1"/>
+      <c r="Y219" s="1"/>
+      <c r="Z219" s="1"/>
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A220" s="4"/>
-      <c r="B220" s="15"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
-      <c r="E220" s="4"/>
-      <c r="F220" s="4"/>
-      <c r="G220" s="4"/>
-      <c r="H220" s="4"/>
-      <c r="I220" s="4"/>
-      <c r="J220" s="4"/>
-      <c r="K220" s="4"/>
-      <c r="L220" s="4"/>
-      <c r="M220" s="4"/>
-      <c r="N220" s="4"/>
-      <c r="O220" s="4"/>
-      <c r="P220" s="4"/>
-      <c r="Q220" s="4"/>
-      <c r="R220" s="4"/>
-      <c r="S220" s="4"/>
-      <c r="T220" s="4"/>
-      <c r="U220" s="4"/>
-      <c r="V220" s="4"/>
-      <c r="W220" s="4"/>
-      <c r="X220" s="4"/>
-      <c r="Y220" s="4"/>
-      <c r="Z220" s="4"/>
+      <c r="A220" s="1"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
+      <c r="U220" s="1"/>
+      <c r="V220" s="1"/>
+      <c r="W220" s="1"/>
+      <c r="X220" s="1"/>
+      <c r="Y220" s="1"/>
+      <c r="Z220" s="1"/>
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
-      <c r="B221" s="15"/>
+      <c r="B221" s="11"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -7272,26 +7424,26 @@
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
-      <c r="K221" s="4"/>
-      <c r="L221" s="4"/>
-      <c r="M221" s="4"/>
-      <c r="N221" s="4"/>
-      <c r="O221" s="4"/>
-      <c r="P221" s="4"/>
-      <c r="Q221" s="4"/>
-      <c r="R221" s="4"/>
-      <c r="S221" s="4"/>
-      <c r="T221" s="4"/>
-      <c r="U221" s="4"/>
-      <c r="V221" s="4"/>
-      <c r="W221" s="4"/>
-      <c r="X221" s="4"/>
-      <c r="Y221" s="4"/>
-      <c r="Z221" s="4"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
+      <c r="U221" s="1"/>
+      <c r="V221" s="1"/>
+      <c r="W221" s="1"/>
+      <c r="X221" s="1"/>
+      <c r="Y221" s="1"/>
+      <c r="Z221" s="1"/>
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
-      <c r="B222" s="15"/>
+      <c r="B222" s="11"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -7300,26 +7452,26 @@
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
-      <c r="K222" s="4"/>
-      <c r="L222" s="4"/>
-      <c r="M222" s="4"/>
-      <c r="N222" s="4"/>
-      <c r="O222" s="4"/>
-      <c r="P222" s="4"/>
-      <c r="Q222" s="4"/>
-      <c r="R222" s="4"/>
-      <c r="S222" s="4"/>
-      <c r="T222" s="4"/>
-      <c r="U222" s="4"/>
-      <c r="V222" s="4"/>
-      <c r="W222" s="4"/>
-      <c r="X222" s="4"/>
-      <c r="Y222" s="4"/>
-      <c r="Z222" s="4"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
+      <c r="U222" s="1"/>
+      <c r="V222" s="1"/>
+      <c r="W222" s="1"/>
+      <c r="X222" s="1"/>
+      <c r="Y222" s="1"/>
+      <c r="Z222" s="1"/>
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
-      <c r="B223" s="15"/>
+      <c r="B223" s="11"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -7328,26 +7480,26 @@
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
-      <c r="K223" s="4"/>
-      <c r="L223" s="4"/>
-      <c r="M223" s="4"/>
-      <c r="N223" s="4"/>
-      <c r="O223" s="4"/>
-      <c r="P223" s="4"/>
-      <c r="Q223" s="4"/>
-      <c r="R223" s="4"/>
-      <c r="S223" s="4"/>
-      <c r="T223" s="4"/>
-      <c r="U223" s="4"/>
-      <c r="V223" s="4"/>
-      <c r="W223" s="4"/>
-      <c r="X223" s="4"/>
-      <c r="Y223" s="4"/>
-      <c r="Z223" s="4"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
+      <c r="U223" s="1"/>
+      <c r="V223" s="1"/>
+      <c r="W223" s="1"/>
+      <c r="X223" s="1"/>
+      <c r="Y223" s="1"/>
+      <c r="Z223" s="1"/>
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
-      <c r="B224" s="15"/>
+      <c r="B224" s="11"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -7375,7 +7527,7 @@
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
-      <c r="B225" s="15"/>
+      <c r="B225" s="11"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -7403,7 +7555,7 @@
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
-      <c r="B226" s="15"/>
+      <c r="B226" s="11"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -7431,7 +7583,7 @@
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
-      <c r="B227" s="15"/>
+      <c r="B227" s="11"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -7459,7 +7611,7 @@
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
-      <c r="B228" s="15"/>
+      <c r="B228" s="11"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -7487,7 +7639,7 @@
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
-      <c r="B229" s="15"/>
+      <c r="B229" s="11"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -7515,7 +7667,7 @@
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
-      <c r="B230" s="15"/>
+      <c r="B230" s="11"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -7543,7 +7695,7 @@
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
-      <c r="B231" s="15"/>
+      <c r="B231" s="11"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -7571,7 +7723,7 @@
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
-      <c r="B232" s="15"/>
+      <c r="B232" s="11"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -7599,7 +7751,7 @@
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
-      <c r="B233" s="15"/>
+      <c r="B233" s="11"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -7627,7 +7779,7 @@
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
-      <c r="B234" s="15"/>
+      <c r="B234" s="11"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -7655,7 +7807,7 @@
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
-      <c r="B235" s="15"/>
+      <c r="B235" s="11"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -7683,7 +7835,7 @@
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
-      <c r="B236" s="15"/>
+      <c r="B236" s="11"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -7711,7 +7863,7 @@
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
-      <c r="B237" s="15"/>
+      <c r="B237" s="11"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -7739,7 +7891,7 @@
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
-      <c r="B238" s="15"/>
+      <c r="B238" s="11"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -7767,7 +7919,7 @@
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
-      <c r="B239" s="15"/>
+      <c r="B239" s="11"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -7795,7 +7947,7 @@
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
-      <c r="B240" s="15"/>
+      <c r="B240" s="11"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -7823,7 +7975,7 @@
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
-      <c r="B241" s="15"/>
+      <c r="B241" s="11"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -7851,7 +8003,7 @@
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
-      <c r="B242" s="15"/>
+      <c r="B242" s="11"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -7879,7 +8031,7 @@
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
-      <c r="B243" s="15"/>
+      <c r="B243" s="11"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -7907,7 +8059,7 @@
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
-      <c r="B244" s="15"/>
+      <c r="B244" s="11"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -7935,7 +8087,7 @@
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
-      <c r="B245" s="15"/>
+      <c r="B245" s="11"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -7963,7 +8115,7 @@
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
-      <c r="B246" s="15"/>
+      <c r="B246" s="11"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -7991,7 +8143,7 @@
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
-      <c r="B247" s="15"/>
+      <c r="B247" s="11"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -8019,7 +8171,7 @@
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
-      <c r="B248" s="15"/>
+      <c r="B248" s="11"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -8047,7 +8199,7 @@
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
-      <c r="B249" s="15"/>
+      <c r="B249" s="11"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -8075,7 +8227,7 @@
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
-      <c r="B250" s="15"/>
+      <c r="B250" s="11"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -8103,7 +8255,7 @@
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
-      <c r="B251" s="15"/>
+      <c r="B251" s="11"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -8131,7 +8283,7 @@
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
-      <c r="B252" s="15"/>
+      <c r="B252" s="11"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -8159,7 +8311,7 @@
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
-      <c r="B253" s="15"/>
+      <c r="B253" s="11"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -8187,7 +8339,7 @@
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
-      <c r="B254" s="15"/>
+      <c r="B254" s="11"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -8215,7 +8367,7 @@
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
-      <c r="B255" s="15"/>
+      <c r="B255" s="11"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -8243,7 +8395,7 @@
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
-      <c r="B256" s="15"/>
+      <c r="B256" s="11"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -8271,7 +8423,7 @@
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
-      <c r="B257" s="15"/>
+      <c r="B257" s="11"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -8299,7 +8451,7 @@
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
-      <c r="B258" s="15"/>
+      <c r="B258" s="11"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -8327,7 +8479,7 @@
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
-      <c r="B259" s="15"/>
+      <c r="B259" s="11"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -8355,7 +8507,7 @@
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
-      <c r="B260" s="15"/>
+      <c r="B260" s="11"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
@@ -8383,7 +8535,7 @@
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
-      <c r="B261" s="15"/>
+      <c r="B261" s="11"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -8411,7 +8563,7 @@
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
-      <c r="B262" s="15"/>
+      <c r="B262" s="11"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -8439,7 +8591,7 @@
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
-      <c r="B263" s="15"/>
+      <c r="B263" s="11"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -8467,7 +8619,7 @@
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
-      <c r="B264" s="15"/>
+      <c r="B264" s="11"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -8495,7 +8647,7 @@
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
-      <c r="B265" s="15"/>
+      <c r="B265" s="11"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -8523,7 +8675,7 @@
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
-      <c r="B266" s="15"/>
+      <c r="B266" s="11"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
@@ -8551,7 +8703,7 @@
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
-      <c r="B267" s="15"/>
+      <c r="B267" s="11"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
@@ -8579,7 +8731,7 @@
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
-      <c r="B268" s="15"/>
+      <c r="B268" s="11"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
@@ -8607,7 +8759,7 @@
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
-      <c r="B269" s="15"/>
+      <c r="B269" s="11"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
@@ -8635,7 +8787,7 @@
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
-      <c r="B270" s="15"/>
+      <c r="B270" s="11"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
@@ -8663,7 +8815,7 @@
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
-      <c r="B271" s="15"/>
+      <c r="B271" s="11"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
@@ -8691,7 +8843,7 @@
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
-      <c r="B272" s="15"/>
+      <c r="B272" s="11"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
@@ -8719,7 +8871,7 @@
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
-      <c r="B273" s="15"/>
+      <c r="B273" s="11"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
@@ -8747,7 +8899,7 @@
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
-      <c r="B274" s="15"/>
+      <c r="B274" s="11"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
@@ -8775,7 +8927,7 @@
     </row>
     <row r="275" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
-      <c r="B275" s="15"/>
+      <c r="B275" s="11"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
@@ -8803,7 +8955,7 @@
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
-      <c r="B276" s="15"/>
+      <c r="B276" s="11"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
@@ -8831,7 +8983,7 @@
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
-      <c r="B277" s="15"/>
+      <c r="B277" s="11"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -8859,7 +9011,7 @@
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
-      <c r="B278" s="15"/>
+      <c r="B278" s="11"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
@@ -8887,7 +9039,7 @@
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
-      <c r="B279" s="15"/>
+      <c r="B279" s="11"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
@@ -8915,7 +9067,7 @@
     </row>
     <row r="280" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
-      <c r="B280" s="15"/>
+      <c r="B280" s="11"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
@@ -8943,7 +9095,7 @@
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
-      <c r="B281" s="15"/>
+      <c r="B281" s="11"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
@@ -8971,7 +9123,7 @@
     </row>
     <row r="282" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
-      <c r="B282" s="15"/>
+      <c r="B282" s="11"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
@@ -8999,7 +9151,7 @@
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
-      <c r="B283" s="15"/>
+      <c r="B283" s="11"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
@@ -9027,7 +9179,7 @@
     </row>
     <row r="284" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
-      <c r="B284" s="15"/>
+      <c r="B284" s="11"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
@@ -9055,7 +9207,7 @@
     </row>
     <row r="285" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
-      <c r="B285" s="15"/>
+      <c r="B285" s="11"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
@@ -9083,7 +9235,7 @@
     </row>
     <row r="286" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
-      <c r="B286" s="15"/>
+      <c r="B286" s="11"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
@@ -9111,7 +9263,7 @@
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
-      <c r="B287" s="15"/>
+      <c r="B287" s="11"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
@@ -9139,7 +9291,7 @@
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
-      <c r="B288" s="15"/>
+      <c r="B288" s="11"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
@@ -9167,7 +9319,7 @@
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
-      <c r="B289" s="15"/>
+      <c r="B289" s="11"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
@@ -9195,7 +9347,7 @@
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
-      <c r="B290" s="15"/>
+      <c r="B290" s="11"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
@@ -9223,7 +9375,7 @@
     </row>
     <row r="291" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
-      <c r="B291" s="15"/>
+      <c r="B291" s="11"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
@@ -9251,7 +9403,7 @@
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
-      <c r="B292" s="15"/>
+      <c r="B292" s="11"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
@@ -9279,7 +9431,7 @@
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
-      <c r="B293" s="15"/>
+      <c r="B293" s="11"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
@@ -9307,7 +9459,7 @@
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
-      <c r="B294" s="15"/>
+      <c r="B294" s="11"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
@@ -9335,7 +9487,7 @@
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
-      <c r="B295" s="15"/>
+      <c r="B295" s="11"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
@@ -9363,7 +9515,7 @@
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
-      <c r="B296" s="15"/>
+      <c r="B296" s="11"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
@@ -9391,7 +9543,7 @@
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
-      <c r="B297" s="15"/>
+      <c r="B297" s="11"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
@@ -9419,7 +9571,7 @@
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
-      <c r="B298" s="15"/>
+      <c r="B298" s="11"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
@@ -9447,7 +9599,7 @@
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
-      <c r="B299" s="15"/>
+      <c r="B299" s="11"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
@@ -9475,7 +9627,7 @@
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
-      <c r="B300" s="15"/>
+      <c r="B300" s="11"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
@@ -9503,7 +9655,7 @@
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
-      <c r="B301" s="15"/>
+      <c r="B301" s="11"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
@@ -9531,7 +9683,7 @@
     </row>
     <row r="302" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
-      <c r="B302" s="15"/>
+      <c r="B302" s="11"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
@@ -9559,7 +9711,7 @@
     </row>
     <row r="303" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
-      <c r="B303" s="15"/>
+      <c r="B303" s="11"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
@@ -9587,7 +9739,7 @@
     </row>
     <row r="304" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
-      <c r="B304" s="15"/>
+      <c r="B304" s="11"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
@@ -9615,7 +9767,7 @@
     </row>
     <row r="305" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
-      <c r="B305" s="15"/>
+      <c r="B305" s="11"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
@@ -9643,7 +9795,7 @@
     </row>
     <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
-      <c r="B306" s="15"/>
+      <c r="B306" s="11"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
@@ -9671,7 +9823,7 @@
     </row>
     <row r="307" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
-      <c r="B307" s="15"/>
+      <c r="B307" s="11"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
@@ -9699,7 +9851,7 @@
     </row>
     <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
-      <c r="B308" s="15"/>
+      <c r="B308" s="11"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
@@ -9727,7 +9879,7 @@
     </row>
     <row r="309" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
-      <c r="B309" s="15"/>
+      <c r="B309" s="11"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
@@ -9755,7 +9907,7 @@
     </row>
     <row r="310" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
-      <c r="B310" s="15"/>
+      <c r="B310" s="11"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -9783,7 +9935,7 @@
     </row>
     <row r="311" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
-      <c r="B311" s="15"/>
+      <c r="B311" s="11"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -9811,7 +9963,7 @@
     </row>
     <row r="312" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
-      <c r="B312" s="15"/>
+      <c r="B312" s="11"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -9839,7 +9991,7 @@
     </row>
     <row r="313" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
-      <c r="B313" s="15"/>
+      <c r="B313" s="11"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -9867,7 +10019,7 @@
     </row>
     <row r="314" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
-      <c r="B314" s="15"/>
+      <c r="B314" s="11"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
@@ -9895,7 +10047,7 @@
     </row>
     <row r="315" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
-      <c r="B315" s="15"/>
+      <c r="B315" s="11"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -9923,7 +10075,7 @@
     </row>
     <row r="316" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
-      <c r="B316" s="15"/>
+      <c r="B316" s="11"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
@@ -9951,7 +10103,7 @@
     </row>
     <row r="317" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
-      <c r="B317" s="15"/>
+      <c r="B317" s="11"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
@@ -9979,7 +10131,7 @@
     </row>
     <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
-      <c r="B318" s="15"/>
+      <c r="B318" s="11"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
@@ -10007,7 +10159,7 @@
     </row>
     <row r="319" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
-      <c r="B319" s="15"/>
+      <c r="B319" s="11"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -10035,7 +10187,7 @@
     </row>
     <row r="320" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
-      <c r="B320" s="15"/>
+      <c r="B320" s="11"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -10063,7 +10215,7 @@
     </row>
     <row r="321" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
-      <c r="B321" s="15"/>
+      <c r="B321" s="11"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -10091,7 +10243,7 @@
     </row>
     <row r="322" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
-      <c r="B322" s="15"/>
+      <c r="B322" s="11"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -10119,7 +10271,7 @@
     </row>
     <row r="323" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
-      <c r="B323" s="15"/>
+      <c r="B323" s="11"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -10147,7 +10299,7 @@
     </row>
     <row r="324" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
-      <c r="B324" s="15"/>
+      <c r="B324" s="11"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -10175,7 +10327,7 @@
     </row>
     <row r="325" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
-      <c r="B325" s="15"/>
+      <c r="B325" s="11"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -10203,7 +10355,7 @@
     </row>
     <row r="326" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
-      <c r="B326" s="15"/>
+      <c r="B326" s="11"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -10231,7 +10383,7 @@
     </row>
     <row r="327" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
-      <c r="B327" s="15"/>
+      <c r="B327" s="11"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -10259,7 +10411,7 @@
     </row>
     <row r="328" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
-      <c r="B328" s="15"/>
+      <c r="B328" s="11"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -10287,7 +10439,7 @@
     </row>
     <row r="329" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
-      <c r="B329" s="15"/>
+      <c r="B329" s="11"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -10315,7 +10467,7 @@
     </row>
     <row r="330" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
-      <c r="B330" s="15"/>
+      <c r="B330" s="11"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -10343,7 +10495,7 @@
     </row>
     <row r="331" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
-      <c r="B331" s="15"/>
+      <c r="B331" s="11"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -10371,7 +10523,7 @@
     </row>
     <row r="332" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
-      <c r="B332" s="15"/>
+      <c r="B332" s="11"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -10399,7 +10551,7 @@
     </row>
     <row r="333" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
-      <c r="B333" s="15"/>
+      <c r="B333" s="11"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -10427,7 +10579,7 @@
     </row>
     <row r="334" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
-      <c r="B334" s="15"/>
+      <c r="B334" s="11"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -10455,7 +10607,7 @@
     </row>
     <row r="335" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
-      <c r="B335" s="15"/>
+      <c r="B335" s="11"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -10483,7 +10635,7 @@
     </row>
     <row r="336" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
-      <c r="B336" s="15"/>
+      <c r="B336" s="11"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -10511,7 +10663,7 @@
     </row>
     <row r="337" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
-      <c r="B337" s="15"/>
+      <c r="B337" s="11"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -10539,7 +10691,7 @@
     </row>
     <row r="338" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
-      <c r="B338" s="15"/>
+      <c r="B338" s="11"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -10567,7 +10719,7 @@
     </row>
     <row r="339" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
-      <c r="B339" s="15"/>
+      <c r="B339" s="11"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -10595,7 +10747,7 @@
     </row>
     <row r="340" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
-      <c r="B340" s="15"/>
+      <c r="B340" s="11"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
@@ -10623,7 +10775,7 @@
     </row>
     <row r="341" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
-      <c r="B341" s="15"/>
+      <c r="B341" s="11"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
@@ -10651,7 +10803,7 @@
     </row>
     <row r="342" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
-      <c r="B342" s="15"/>
+      <c r="B342" s="11"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
@@ -10679,7 +10831,7 @@
     </row>
     <row r="343" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
-      <c r="B343" s="15"/>
+      <c r="B343" s="11"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
@@ -10707,7 +10859,7 @@
     </row>
     <row r="344" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
-      <c r="B344" s="15"/>
+      <c r="B344" s="11"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
@@ -10735,7 +10887,7 @@
     </row>
     <row r="345" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
-      <c r="B345" s="15"/>
+      <c r="B345" s="11"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -10763,7 +10915,7 @@
     </row>
     <row r="346" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
-      <c r="B346" s="15"/>
+      <c r="B346" s="11"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -10791,7 +10943,7 @@
     </row>
     <row r="347" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
-      <c r="B347" s="15"/>
+      <c r="B347" s="11"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
@@ -10819,7 +10971,7 @@
     </row>
     <row r="348" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
-      <c r="B348" s="15"/>
+      <c r="B348" s="11"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
@@ -10847,7 +10999,7 @@
     </row>
     <row r="349" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
-      <c r="B349" s="15"/>
+      <c r="B349" s="11"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
@@ -10875,7 +11027,7 @@
     </row>
     <row r="350" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
-      <c r="B350" s="15"/>
+      <c r="B350" s="11"/>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
@@ -10903,7 +11055,7 @@
     </row>
     <row r="351" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
-      <c r="B351" s="15"/>
+      <c r="B351" s="11"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
@@ -10931,7 +11083,7 @@
     </row>
     <row r="352" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
-      <c r="B352" s="15"/>
+      <c r="B352" s="11"/>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
@@ -10959,7 +11111,7 @@
     </row>
     <row r="353" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
-      <c r="B353" s="15"/>
+      <c r="B353" s="11"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -10987,7 +11139,7 @@
     </row>
     <row r="354" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
-      <c r="B354" s="15"/>
+      <c r="B354" s="11"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
@@ -11015,7 +11167,7 @@
     </row>
     <row r="355" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
-      <c r="B355" s="15"/>
+      <c r="B355" s="11"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
@@ -11043,7 +11195,7 @@
     </row>
     <row r="356" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
-      <c r="B356" s="15"/>
+      <c r="B356" s="11"/>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
@@ -11071,7 +11223,7 @@
     </row>
     <row r="357" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
-      <c r="B357" s="15"/>
+      <c r="B357" s="11"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
@@ -11099,7 +11251,7 @@
     </row>
     <row r="358" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
-      <c r="B358" s="15"/>
+      <c r="B358" s="11"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
@@ -11127,7 +11279,7 @@
     </row>
     <row r="359" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
-      <c r="B359" s="15"/>
+      <c r="B359" s="11"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
@@ -11155,7 +11307,7 @@
     </row>
     <row r="360" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
-      <c r="B360" s="15"/>
+      <c r="B360" s="11"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
@@ -11183,7 +11335,7 @@
     </row>
     <row r="361" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
-      <c r="B361" s="15"/>
+      <c r="B361" s="11"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
@@ -11211,7 +11363,7 @@
     </row>
     <row r="362" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
-      <c r="B362" s="15"/>
+      <c r="B362" s="11"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
@@ -11239,7 +11391,7 @@
     </row>
     <row r="363" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
-      <c r="B363" s="15"/>
+      <c r="B363" s="11"/>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
@@ -11267,7 +11419,7 @@
     </row>
     <row r="364" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
-      <c r="B364" s="15"/>
+      <c r="B364" s="11"/>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
@@ -11295,7 +11447,7 @@
     </row>
     <row r="365" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
-      <c r="B365" s="15"/>
+      <c r="B365" s="11"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
@@ -11323,7 +11475,7 @@
     </row>
     <row r="366" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
-      <c r="B366" s="15"/>
+      <c r="B366" s="11"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
@@ -11351,7 +11503,7 @@
     </row>
     <row r="367" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
-      <c r="B367" s="15"/>
+      <c r="B367" s="11"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
@@ -11379,7 +11531,7 @@
     </row>
     <row r="368" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
-      <c r="B368" s="15"/>
+      <c r="B368" s="11"/>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
@@ -11407,7 +11559,7 @@
     </row>
     <row r="369" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
-      <c r="B369" s="15"/>
+      <c r="B369" s="11"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
@@ -11435,7 +11587,7 @@
     </row>
     <row r="370" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
-      <c r="B370" s="15"/>
+      <c r="B370" s="11"/>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
@@ -11463,7 +11615,7 @@
     </row>
     <row r="371" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
-      <c r="B371" s="15"/>
+      <c r="B371" s="11"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
@@ -11491,7 +11643,7 @@
     </row>
     <row r="372" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
-      <c r="B372" s="15"/>
+      <c r="B372" s="11"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
@@ -11519,7 +11671,7 @@
     </row>
     <row r="373" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
-      <c r="B373" s="15"/>
+      <c r="B373" s="11"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
@@ -11547,7 +11699,7 @@
     </row>
     <row r="374" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
-      <c r="B374" s="15"/>
+      <c r="B374" s="11"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
@@ -11575,7 +11727,7 @@
     </row>
     <row r="375" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
-      <c r="B375" s="15"/>
+      <c r="B375" s="11"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
@@ -11603,7 +11755,7 @@
     </row>
     <row r="376" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
-      <c r="B376" s="15"/>
+      <c r="B376" s="11"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
@@ -11631,7 +11783,7 @@
     </row>
     <row r="377" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
-      <c r="B377" s="15"/>
+      <c r="B377" s="11"/>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
@@ -11659,7 +11811,7 @@
     </row>
     <row r="378" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
-      <c r="B378" s="15"/>
+      <c r="B378" s="11"/>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
@@ -11687,7 +11839,7 @@
     </row>
     <row r="379" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
-      <c r="B379" s="15"/>
+      <c r="B379" s="11"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
@@ -11715,7 +11867,7 @@
     </row>
     <row r="380" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
-      <c r="B380" s="15"/>
+      <c r="B380" s="11"/>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
@@ -11743,7 +11895,7 @@
     </row>
     <row r="381" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
-      <c r="B381" s="15"/>
+      <c r="B381" s="11"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
@@ -11771,7 +11923,7 @@
     </row>
     <row r="382" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
-      <c r="B382" s="15"/>
+      <c r="B382" s="11"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
@@ -11799,7 +11951,7 @@
     </row>
     <row r="383" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
-      <c r="B383" s="15"/>
+      <c r="B383" s="11"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
@@ -11827,7 +11979,7 @@
     </row>
     <row r="384" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
-      <c r="B384" s="15"/>
+      <c r="B384" s="11"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
@@ -11855,7 +12007,7 @@
     </row>
     <row r="385" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
-      <c r="B385" s="15"/>
+      <c r="B385" s="11"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
@@ -11883,7 +12035,7 @@
     </row>
     <row r="386" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
-      <c r="B386" s="15"/>
+      <c r="B386" s="11"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
@@ -11911,7 +12063,7 @@
     </row>
     <row r="387" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
-      <c r="B387" s="15"/>
+      <c r="B387" s="11"/>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
@@ -11939,7 +12091,7 @@
     </row>
     <row r="388" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
-      <c r="B388" s="15"/>
+      <c r="B388" s="11"/>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
@@ -11967,7 +12119,7 @@
     </row>
     <row r="389" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
-      <c r="B389" s="15"/>
+      <c r="B389" s="11"/>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
@@ -11995,7 +12147,7 @@
     </row>
     <row r="390" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
-      <c r="B390" s="15"/>
+      <c r="B390" s="11"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
@@ -12023,7 +12175,7 @@
     </row>
     <row r="391" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
-      <c r="B391" s="15"/>
+      <c r="B391" s="11"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
@@ -12051,7 +12203,7 @@
     </row>
     <row r="392" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
-      <c r="B392" s="15"/>
+      <c r="B392" s="11"/>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
@@ -12079,7 +12231,7 @@
     </row>
     <row r="393" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
-      <c r="B393" s="15"/>
+      <c r="B393" s="11"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
@@ -12107,7 +12259,7 @@
     </row>
     <row r="394" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
-      <c r="B394" s="15"/>
+      <c r="B394" s="11"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
@@ -12135,7 +12287,7 @@
     </row>
     <row r="395" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
-      <c r="B395" s="15"/>
+      <c r="B395" s="11"/>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -12163,7 +12315,7 @@
     </row>
     <row r="396" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
-      <c r="B396" s="15"/>
+      <c r="B396" s="11"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
@@ -12191,7 +12343,7 @@
     </row>
     <row r="397" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
-      <c r="B397" s="15"/>
+      <c r="B397" s="11"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -12219,7 +12371,7 @@
     </row>
     <row r="398" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
-      <c r="B398" s="15"/>
+      <c r="B398" s="11"/>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -12247,7 +12399,7 @@
     </row>
     <row r="399" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
-      <c r="B399" s="15"/>
+      <c r="B399" s="11"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
@@ -12275,7 +12427,7 @@
     </row>
     <row r="400" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
-      <c r="B400" s="15"/>
+      <c r="B400" s="11"/>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
@@ -12303,7 +12455,7 @@
     </row>
     <row r="401" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
-      <c r="B401" s="15"/>
+      <c r="B401" s="11"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
@@ -12331,7 +12483,7 @@
     </row>
     <row r="402" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
-      <c r="B402" s="15"/>
+      <c r="B402" s="11"/>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -12359,7 +12511,7 @@
     </row>
     <row r="403" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
-      <c r="B403" s="15"/>
+      <c r="B403" s="11"/>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -12387,7 +12539,7 @@
     </row>
     <row r="404" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
-      <c r="B404" s="15"/>
+      <c r="B404" s="11"/>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -12415,7 +12567,7 @@
     </row>
     <row r="405" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
-      <c r="B405" s="15"/>
+      <c r="B405" s="11"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -12443,7 +12595,7 @@
     </row>
     <row r="406" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
-      <c r="B406" s="15"/>
+      <c r="B406" s="11"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -12471,7 +12623,7 @@
     </row>
     <row r="407" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
-      <c r="B407" s="15"/>
+      <c r="B407" s="11"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -12499,7 +12651,7 @@
     </row>
     <row r="408" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
-      <c r="B408" s="15"/>
+      <c r="B408" s="11"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -12527,7 +12679,7 @@
     </row>
     <row r="409" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
-      <c r="B409" s="15"/>
+      <c r="B409" s="11"/>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -12555,7 +12707,7 @@
     </row>
     <row r="410" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
-      <c r="B410" s="15"/>
+      <c r="B410" s="11"/>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -12583,7 +12735,7 @@
     </row>
     <row r="411" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
-      <c r="B411" s="15"/>
+      <c r="B411" s="11"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -12611,7 +12763,7 @@
     </row>
     <row r="412" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
-      <c r="B412" s="15"/>
+      <c r="B412" s="11"/>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
@@ -12639,7 +12791,7 @@
     </row>
     <row r="413" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
-      <c r="B413" s="15"/>
+      <c r="B413" s="11"/>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
@@ -12667,7 +12819,7 @@
     </row>
     <row r="414" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
-      <c r="B414" s="15"/>
+      <c r="B414" s="11"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
@@ -12695,7 +12847,7 @@
     </row>
     <row r="415" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
-      <c r="B415" s="15"/>
+      <c r="B415" s="11"/>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
@@ -12723,7 +12875,7 @@
     </row>
     <row r="416" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
-      <c r="B416" s="15"/>
+      <c r="B416" s="11"/>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
@@ -12751,7 +12903,7 @@
     </row>
     <row r="417" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
-      <c r="B417" s="15"/>
+      <c r="B417" s="11"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
@@ -12779,7 +12931,7 @@
     </row>
     <row r="418" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
-      <c r="B418" s="15"/>
+      <c r="B418" s="11"/>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
@@ -12807,7 +12959,7 @@
     </row>
     <row r="419" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
-      <c r="B419" s="15"/>
+      <c r="B419" s="11"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
@@ -12835,7 +12987,7 @@
     </row>
     <row r="420" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
-      <c r="B420" s="15"/>
+      <c r="B420" s="11"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
@@ -12863,7 +13015,7 @@
     </row>
     <row r="421" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
-      <c r="B421" s="15"/>
+      <c r="B421" s="11"/>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
@@ -12891,7 +13043,7 @@
     </row>
     <row r="422" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
-      <c r="B422" s="15"/>
+      <c r="B422" s="11"/>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
@@ -12919,7 +13071,7 @@
     </row>
     <row r="423" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
-      <c r="B423" s="15"/>
+      <c r="B423" s="11"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -12947,7 +13099,7 @@
     </row>
     <row r="424" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
-      <c r="B424" s="15"/>
+      <c r="B424" s="11"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
@@ -12975,7 +13127,7 @@
     </row>
     <row r="425" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
-      <c r="B425" s="15"/>
+      <c r="B425" s="11"/>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
@@ -13003,7 +13155,7 @@
     </row>
     <row r="426" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
-      <c r="B426" s="15"/>
+      <c r="B426" s="11"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
@@ -13031,7 +13183,7 @@
     </row>
     <row r="427" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
-      <c r="B427" s="15"/>
+      <c r="B427" s="11"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
@@ -13059,7 +13211,7 @@
     </row>
     <row r="428" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
-      <c r="B428" s="15"/>
+      <c r="B428" s="11"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -13087,7 +13239,7 @@
     </row>
     <row r="429" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
-      <c r="B429" s="15"/>
+      <c r="B429" s="11"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -13115,7 +13267,7 @@
     </row>
     <row r="430" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
-      <c r="B430" s="15"/>
+      <c r="B430" s="11"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
@@ -13143,7 +13295,7 @@
     </row>
     <row r="431" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
-      <c r="B431" s="15"/>
+      <c r="B431" s="11"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
@@ -13171,7 +13323,7 @@
     </row>
     <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
-      <c r="B432" s="15"/>
+      <c r="B432" s="11"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
@@ -13199,7 +13351,7 @@
     </row>
     <row r="433" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
-      <c r="B433" s="15"/>
+      <c r="B433" s="11"/>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
@@ -13227,7 +13379,7 @@
     </row>
     <row r="434" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
-      <c r="B434" s="15"/>
+      <c r="B434" s="11"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
@@ -13255,7 +13407,7 @@
     </row>
     <row r="435" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
-      <c r="B435" s="15"/>
+      <c r="B435" s="11"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
@@ -13283,7 +13435,7 @@
     </row>
     <row r="436" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
-      <c r="B436" s="15"/>
+      <c r="B436" s="11"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
@@ -13311,7 +13463,7 @@
     </row>
     <row r="437" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
-      <c r="B437" s="15"/>
+      <c r="B437" s="11"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
@@ -13339,7 +13491,7 @@
     </row>
     <row r="438" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
-      <c r="B438" s="15"/>
+      <c r="B438" s="11"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
@@ -13367,7 +13519,7 @@
     </row>
     <row r="439" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
-      <c r="B439" s="15"/>
+      <c r="B439" s="11"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
@@ -13395,7 +13547,7 @@
     </row>
     <row r="440" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
-      <c r="B440" s="15"/>
+      <c r="B440" s="11"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
@@ -13423,7 +13575,7 @@
     </row>
     <row r="441" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
-      <c r="B441" s="15"/>
+      <c r="B441" s="11"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
@@ -13451,7 +13603,7 @@
     </row>
     <row r="442" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
-      <c r="B442" s="15"/>
+      <c r="B442" s="11"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
@@ -13479,7 +13631,7 @@
     </row>
     <row r="443" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
-      <c r="B443" s="15"/>
+      <c r="B443" s="11"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
@@ -13507,7 +13659,7 @@
     </row>
     <row r="444" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
-      <c r="B444" s="15"/>
+      <c r="B444" s="11"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
@@ -13535,7 +13687,7 @@
     </row>
     <row r="445" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
-      <c r="B445" s="15"/>
+      <c r="B445" s="11"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
@@ -13563,7 +13715,7 @@
     </row>
     <row r="446" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
-      <c r="B446" s="15"/>
+      <c r="B446" s="11"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
@@ -13591,7 +13743,7 @@
     </row>
     <row r="447" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
-      <c r="B447" s="15"/>
+      <c r="B447" s="11"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
@@ -13619,7 +13771,7 @@
     </row>
     <row r="448" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
-      <c r="B448" s="15"/>
+      <c r="B448" s="11"/>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
@@ -13647,7 +13799,7 @@
     </row>
     <row r="449" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
-      <c r="B449" s="15"/>
+      <c r="B449" s="11"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
@@ -13675,7 +13827,7 @@
     </row>
     <row r="450" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
-      <c r="B450" s="15"/>
+      <c r="B450" s="11"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
@@ -13703,7 +13855,7 @@
     </row>
     <row r="451" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
-      <c r="B451" s="15"/>
+      <c r="B451" s="11"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
@@ -13731,7 +13883,7 @@
     </row>
     <row r="452" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
-      <c r="B452" s="15"/>
+      <c r="B452" s="11"/>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
@@ -13759,7 +13911,7 @@
     </row>
     <row r="453" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
-      <c r="B453" s="15"/>
+      <c r="B453" s="11"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
@@ -13787,7 +13939,7 @@
     </row>
     <row r="454" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
-      <c r="B454" s="15"/>
+      <c r="B454" s="11"/>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
@@ -13815,7 +13967,7 @@
     </row>
     <row r="455" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
-      <c r="B455" s="15"/>
+      <c r="B455" s="11"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
@@ -13843,7 +13995,7 @@
     </row>
     <row r="456" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
-      <c r="B456" s="15"/>
+      <c r="B456" s="11"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
@@ -13871,7 +14023,7 @@
     </row>
     <row r="457" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
-      <c r="B457" s="15"/>
+      <c r="B457" s="11"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
@@ -13899,7 +14051,7 @@
     </row>
     <row r="458" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
-      <c r="B458" s="15"/>
+      <c r="B458" s="11"/>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
@@ -13927,7 +14079,7 @@
     </row>
     <row r="459" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
-      <c r="B459" s="15"/>
+      <c r="B459" s="11"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
@@ -13955,7 +14107,7 @@
     </row>
     <row r="460" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
-      <c r="B460" s="15"/>
+      <c r="B460" s="11"/>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
@@ -13983,7 +14135,7 @@
     </row>
     <row r="461" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
-      <c r="B461" s="15"/>
+      <c r="B461" s="11"/>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
@@ -14011,7 +14163,7 @@
     </row>
     <row r="462" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
-      <c r="B462" s="15"/>
+      <c r="B462" s="11"/>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
@@ -14039,7 +14191,7 @@
     </row>
     <row r="463" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
-      <c r="B463" s="15"/>
+      <c r="B463" s="11"/>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
@@ -14067,7 +14219,7 @@
     </row>
     <row r="464" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
-      <c r="B464" s="15"/>
+      <c r="B464" s="11"/>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
@@ -14095,7 +14247,7 @@
     </row>
     <row r="465" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
-      <c r="B465" s="15"/>
+      <c r="B465" s="11"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
@@ -14123,7 +14275,7 @@
     </row>
     <row r="466" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
-      <c r="B466" s="15"/>
+      <c r="B466" s="11"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
@@ -14151,7 +14303,7 @@
     </row>
     <row r="467" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
-      <c r="B467" s="15"/>
+      <c r="B467" s="11"/>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
@@ -14179,7 +14331,7 @@
     </row>
     <row r="468" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
-      <c r="B468" s="15"/>
+      <c r="B468" s="11"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
@@ -14207,7 +14359,7 @@
     </row>
     <row r="469" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
-      <c r="B469" s="15"/>
+      <c r="B469" s="11"/>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
@@ -14235,7 +14387,7 @@
     </row>
     <row r="470" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
-      <c r="B470" s="15"/>
+      <c r="B470" s="11"/>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
@@ -14263,7 +14415,7 @@
     </row>
     <row r="471" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
-      <c r="B471" s="15"/>
+      <c r="B471" s="11"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
@@ -14291,7 +14443,7 @@
     </row>
     <row r="472" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
-      <c r="B472" s="15"/>
+      <c r="B472" s="11"/>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
@@ -14319,7 +14471,7 @@
     </row>
     <row r="473" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
-      <c r="B473" s="15"/>
+      <c r="B473" s="11"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
@@ -14347,7 +14499,7 @@
     </row>
     <row r="474" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
-      <c r="B474" s="15"/>
+      <c r="B474" s="11"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
@@ -14375,7 +14527,7 @@
     </row>
     <row r="475" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
-      <c r="B475" s="15"/>
+      <c r="B475" s="11"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
@@ -14403,7 +14555,7 @@
     </row>
     <row r="476" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
-      <c r="B476" s="15"/>
+      <c r="B476" s="11"/>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
@@ -14431,7 +14583,7 @@
     </row>
     <row r="477" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
-      <c r="B477" s="15"/>
+      <c r="B477" s="11"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
@@ -14459,7 +14611,7 @@
     </row>
     <row r="478" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
-      <c r="B478" s="15"/>
+      <c r="B478" s="11"/>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
@@ -14487,7 +14639,7 @@
     </row>
     <row r="479" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
-      <c r="B479" s="15"/>
+      <c r="B479" s="11"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
@@ -14515,7 +14667,7 @@
     </row>
     <row r="480" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
-      <c r="B480" s="15"/>
+      <c r="B480" s="11"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
@@ -14543,7 +14695,7 @@
     </row>
     <row r="481" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
-      <c r="B481" s="15"/>
+      <c r="B481" s="11"/>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
@@ -14571,7 +14723,7 @@
     </row>
     <row r="482" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
-      <c r="B482" s="15"/>
+      <c r="B482" s="11"/>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
@@ -14599,7 +14751,7 @@
     </row>
     <row r="483" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
-      <c r="B483" s="15"/>
+      <c r="B483" s="11"/>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
@@ -14627,7 +14779,7 @@
     </row>
     <row r="484" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
-      <c r="B484" s="15"/>
+      <c r="B484" s="11"/>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
@@ -14655,7 +14807,7 @@
     </row>
     <row r="485" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
-      <c r="B485" s="15"/>
+      <c r="B485" s="11"/>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
@@ -14683,7 +14835,7 @@
     </row>
     <row r="486" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
-      <c r="B486" s="15"/>
+      <c r="B486" s="11"/>
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
@@ -14711,7 +14863,7 @@
     </row>
     <row r="487" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
-      <c r="B487" s="15"/>
+      <c r="B487" s="11"/>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
@@ -14739,7 +14891,7 @@
     </row>
     <row r="488" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
-      <c r="B488" s="15"/>
+      <c r="B488" s="11"/>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
@@ -14767,7 +14919,7 @@
     </row>
     <row r="489" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
-      <c r="B489" s="15"/>
+      <c r="B489" s="11"/>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
@@ -14795,7 +14947,7 @@
     </row>
     <row r="490" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
-      <c r="B490" s="15"/>
+      <c r="B490" s="11"/>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
@@ -14823,7 +14975,7 @@
     </row>
     <row r="491" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
-      <c r="B491" s="15"/>
+      <c r="B491" s="11"/>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
@@ -14851,7 +15003,7 @@
     </row>
     <row r="492" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
-      <c r="B492" s="15"/>
+      <c r="B492" s="11"/>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
@@ -14879,7 +15031,7 @@
     </row>
     <row r="493" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
-      <c r="B493" s="15"/>
+      <c r="B493" s="11"/>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
@@ -14907,7 +15059,7 @@
     </row>
     <row r="494" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
-      <c r="B494" s="15"/>
+      <c r="B494" s="11"/>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
@@ -14935,7 +15087,7 @@
     </row>
     <row r="495" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
-      <c r="B495" s="15"/>
+      <c r="B495" s="11"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
@@ -14963,7 +15115,7 @@
     </row>
     <row r="496" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
-      <c r="B496" s="15"/>
+      <c r="B496" s="11"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
@@ -14991,7 +15143,7 @@
     </row>
     <row r="497" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
-      <c r="B497" s="15"/>
+      <c r="B497" s="11"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
@@ -15019,7 +15171,7 @@
     </row>
     <row r="498" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
-      <c r="B498" s="15"/>
+      <c r="B498" s="11"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
@@ -15047,7 +15199,7 @@
     </row>
     <row r="499" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
-      <c r="B499" s="15"/>
+      <c r="B499" s="11"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
@@ -15075,7 +15227,7 @@
     </row>
     <row r="500" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
-      <c r="B500" s="15"/>
+      <c r="B500" s="11"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
@@ -15103,7 +15255,7 @@
     </row>
     <row r="501" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
-      <c r="B501" s="15"/>
+      <c r="B501" s="11"/>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
@@ -15131,7 +15283,7 @@
     </row>
     <row r="502" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
-      <c r="B502" s="15"/>
+      <c r="B502" s="11"/>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
@@ -15159,7 +15311,7 @@
     </row>
     <row r="503" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
-      <c r="B503" s="15"/>
+      <c r="B503" s="11"/>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
@@ -15187,7 +15339,7 @@
     </row>
     <row r="504" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
-      <c r="B504" s="15"/>
+      <c r="B504" s="11"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
@@ -15215,7 +15367,7 @@
     </row>
     <row r="505" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
-      <c r="B505" s="15"/>
+      <c r="B505" s="11"/>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
@@ -15243,7 +15395,7 @@
     </row>
     <row r="506" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
-      <c r="B506" s="15"/>
+      <c r="B506" s="11"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
@@ -15271,7 +15423,7 @@
     </row>
     <row r="507" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
-      <c r="B507" s="15"/>
+      <c r="B507" s="11"/>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
@@ -15299,7 +15451,7 @@
     </row>
     <row r="508" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
-      <c r="B508" s="15"/>
+      <c r="B508" s="11"/>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
@@ -15327,7 +15479,7 @@
     </row>
     <row r="509" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
-      <c r="B509" s="15"/>
+      <c r="B509" s="11"/>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
@@ -15355,7 +15507,7 @@
     </row>
     <row r="510" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
-      <c r="B510" s="15"/>
+      <c r="B510" s="11"/>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
@@ -15383,7 +15535,7 @@
     </row>
     <row r="511" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
-      <c r="B511" s="15"/>
+      <c r="B511" s="11"/>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
@@ -15411,7 +15563,7 @@
     </row>
     <row r="512" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
-      <c r="B512" s="15"/>
+      <c r="B512" s="11"/>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
@@ -15439,7 +15591,7 @@
     </row>
     <row r="513" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
-      <c r="B513" s="15"/>
+      <c r="B513" s="11"/>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
@@ -15467,7 +15619,7 @@
     </row>
     <row r="514" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
-      <c r="B514" s="15"/>
+      <c r="B514" s="11"/>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
@@ -15495,7 +15647,7 @@
     </row>
     <row r="515" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
-      <c r="B515" s="15"/>
+      <c r="B515" s="11"/>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
@@ -15523,7 +15675,7 @@
     </row>
     <row r="516" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
-      <c r="B516" s="15"/>
+      <c r="B516" s="11"/>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
@@ -15551,7 +15703,7 @@
     </row>
     <row r="517" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
-      <c r="B517" s="15"/>
+      <c r="B517" s="11"/>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
@@ -15579,7 +15731,7 @@
     </row>
     <row r="518" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
-      <c r="B518" s="15"/>
+      <c r="B518" s="11"/>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
@@ -15607,7 +15759,7 @@
     </row>
     <row r="519" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
-      <c r="B519" s="15"/>
+      <c r="B519" s="11"/>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
@@ -15635,7 +15787,7 @@
     </row>
     <row r="520" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
-      <c r="B520" s="15"/>
+      <c r="B520" s="11"/>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
@@ -15663,7 +15815,7 @@
     </row>
     <row r="521" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
-      <c r="B521" s="15"/>
+      <c r="B521" s="11"/>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
@@ -15691,7 +15843,7 @@
     </row>
     <row r="522" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
-      <c r="B522" s="15"/>
+      <c r="B522" s="11"/>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
@@ -15719,7 +15871,7 @@
     </row>
     <row r="523" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
-      <c r="B523" s="15"/>
+      <c r="B523" s="11"/>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
@@ -15747,7 +15899,7 @@
     </row>
     <row r="524" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
-      <c r="B524" s="15"/>
+      <c r="B524" s="11"/>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
@@ -15775,7 +15927,7 @@
     </row>
     <row r="525" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
-      <c r="B525" s="15"/>
+      <c r="B525" s="11"/>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
@@ -15803,7 +15955,7 @@
     </row>
     <row r="526" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
-      <c r="B526" s="15"/>
+      <c r="B526" s="11"/>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
@@ -15831,7 +15983,7 @@
     </row>
     <row r="527" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
-      <c r="B527" s="15"/>
+      <c r="B527" s="11"/>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
@@ -15859,7 +16011,7 @@
     </row>
     <row r="528" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
-      <c r="B528" s="15"/>
+      <c r="B528" s="11"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
@@ -15887,7 +16039,7 @@
     </row>
     <row r="529" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
-      <c r="B529" s="15"/>
+      <c r="B529" s="11"/>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
@@ -15915,7 +16067,7 @@
     </row>
     <row r="530" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
-      <c r="B530" s="15"/>
+      <c r="B530" s="11"/>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
@@ -15943,7 +16095,7 @@
     </row>
     <row r="531" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
-      <c r="B531" s="15"/>
+      <c r="B531" s="11"/>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
@@ -15971,7 +16123,7 @@
     </row>
     <row r="532" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
-      <c r="B532" s="15"/>
+      <c r="B532" s="11"/>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
@@ -15999,7 +16151,7 @@
     </row>
     <row r="533" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
-      <c r="B533" s="15"/>
+      <c r="B533" s="11"/>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
@@ -16027,7 +16179,7 @@
     </row>
     <row r="534" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
-      <c r="B534" s="15"/>
+      <c r="B534" s="11"/>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
@@ -16055,7 +16207,7 @@
     </row>
     <row r="535" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
-      <c r="B535" s="15"/>
+      <c r="B535" s="11"/>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
@@ -16083,7 +16235,7 @@
     </row>
     <row r="536" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
-      <c r="B536" s="15"/>
+      <c r="B536" s="11"/>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
@@ -16111,7 +16263,7 @@
     </row>
     <row r="537" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
-      <c r="B537" s="15"/>
+      <c r="B537" s="11"/>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
@@ -16139,7 +16291,7 @@
     </row>
     <row r="538" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
-      <c r="B538" s="15"/>
+      <c r="B538" s="11"/>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
@@ -16167,7 +16319,7 @@
     </row>
     <row r="539" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
-      <c r="B539" s="15"/>
+      <c r="B539" s="11"/>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
@@ -16195,7 +16347,7 @@
     </row>
     <row r="540" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
-      <c r="B540" s="15"/>
+      <c r="B540" s="11"/>
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
@@ -16223,7 +16375,7 @@
     </row>
     <row r="541" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
-      <c r="B541" s="15"/>
+      <c r="B541" s="11"/>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
@@ -16251,7 +16403,7 @@
     </row>
     <row r="542" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
-      <c r="B542" s="15"/>
+      <c r="B542" s="11"/>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
@@ -16279,7 +16431,7 @@
     </row>
     <row r="543" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
-      <c r="B543" s="15"/>
+      <c r="B543" s="11"/>
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
@@ -16307,7 +16459,7 @@
     </row>
     <row r="544" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
-      <c r="B544" s="15"/>
+      <c r="B544" s="11"/>
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
@@ -16335,7 +16487,7 @@
     </row>
     <row r="545" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
-      <c r="B545" s="15"/>
+      <c r="B545" s="11"/>
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
@@ -16363,7 +16515,7 @@
     </row>
     <row r="546" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
-      <c r="B546" s="15"/>
+      <c r="B546" s="11"/>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
@@ -16391,7 +16543,7 @@
     </row>
     <row r="547" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
-      <c r="B547" s="15"/>
+      <c r="B547" s="11"/>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
@@ -16419,7 +16571,7 @@
     </row>
     <row r="548" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
-      <c r="B548" s="15"/>
+      <c r="B548" s="11"/>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
@@ -16447,7 +16599,7 @@
     </row>
     <row r="549" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
-      <c r="B549" s="15"/>
+      <c r="B549" s="11"/>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
@@ -16475,7 +16627,7 @@
     </row>
     <row r="550" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
-      <c r="B550" s="15"/>
+      <c r="B550" s="11"/>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
@@ -16503,7 +16655,7 @@
     </row>
     <row r="551" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
-      <c r="B551" s="15"/>
+      <c r="B551" s="11"/>
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
@@ -16531,7 +16683,7 @@
     </row>
     <row r="552" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
-      <c r="B552" s="15"/>
+      <c r="B552" s="11"/>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
@@ -16559,7 +16711,7 @@
     </row>
     <row r="553" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
-      <c r="B553" s="15"/>
+      <c r="B553" s="11"/>
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
@@ -16587,7 +16739,7 @@
     </row>
     <row r="554" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
-      <c r="B554" s="15"/>
+      <c r="B554" s="11"/>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
@@ -16615,7 +16767,7 @@
     </row>
     <row r="555" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
-      <c r="B555" s="15"/>
+      <c r="B555" s="11"/>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
@@ -16643,7 +16795,7 @@
     </row>
     <row r="556" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
-      <c r="B556" s="15"/>
+      <c r="B556" s="11"/>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
@@ -16671,7 +16823,7 @@
     </row>
     <row r="557" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
-      <c r="B557" s="15"/>
+      <c r="B557" s="11"/>
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
@@ -16699,7 +16851,7 @@
     </row>
     <row r="558" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
-      <c r="B558" s="15"/>
+      <c r="B558" s="11"/>
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
@@ -16727,7 +16879,7 @@
     </row>
     <row r="559" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
-      <c r="B559" s="15"/>
+      <c r="B559" s="11"/>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
@@ -16755,7 +16907,7 @@
     </row>
     <row r="560" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
-      <c r="B560" s="15"/>
+      <c r="B560" s="11"/>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
@@ -16783,7 +16935,7 @@
     </row>
     <row r="561" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
-      <c r="B561" s="15"/>
+      <c r="B561" s="11"/>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
@@ -16811,7 +16963,7 @@
     </row>
     <row r="562" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
-      <c r="B562" s="15"/>
+      <c r="B562" s="11"/>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
@@ -16839,7 +16991,7 @@
     </row>
     <row r="563" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
-      <c r="B563" s="15"/>
+      <c r="B563" s="11"/>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
@@ -16867,7 +17019,7 @@
     </row>
     <row r="564" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
-      <c r="B564" s="15"/>
+      <c r="B564" s="11"/>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
@@ -16895,7 +17047,7 @@
     </row>
     <row r="565" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
-      <c r="B565" s="15"/>
+      <c r="B565" s="11"/>
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
@@ -16923,7 +17075,7 @@
     </row>
     <row r="566" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
-      <c r="B566" s="15"/>
+      <c r="B566" s="11"/>
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
@@ -16951,7 +17103,7 @@
     </row>
     <row r="567" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
-      <c r="B567" s="15"/>
+      <c r="B567" s="11"/>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
@@ -16979,7 +17131,7 @@
     </row>
     <row r="568" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
-      <c r="B568" s="15"/>
+      <c r="B568" s="11"/>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
@@ -17007,7 +17159,7 @@
     </row>
     <row r="569" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
-      <c r="B569" s="15"/>
+      <c r="B569" s="11"/>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
@@ -17035,7 +17187,7 @@
     </row>
     <row r="570" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
-      <c r="B570" s="15"/>
+      <c r="B570" s="11"/>
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
@@ -17063,7 +17215,7 @@
     </row>
     <row r="571" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
-      <c r="B571" s="15"/>
+      <c r="B571" s="11"/>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
@@ -17091,7 +17243,7 @@
     </row>
     <row r="572" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
-      <c r="B572" s="15"/>
+      <c r="B572" s="11"/>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
@@ -17119,7 +17271,7 @@
     </row>
     <row r="573" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
-      <c r="B573" s="15"/>
+      <c r="B573" s="11"/>
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
@@ -17147,7 +17299,7 @@
     </row>
     <row r="574" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
-      <c r="B574" s="15"/>
+      <c r="B574" s="11"/>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
@@ -17175,7 +17327,7 @@
     </row>
     <row r="575" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A575" s="4"/>
-      <c r="B575" s="15"/>
+      <c r="B575" s="11"/>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
@@ -17203,7 +17355,7 @@
     </row>
     <row r="576" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
-      <c r="B576" s="15"/>
+      <c r="B576" s="11"/>
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
@@ -17231,7 +17383,7 @@
     </row>
     <row r="577" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A577" s="4"/>
-      <c r="B577" s="15"/>
+      <c r="B577" s="11"/>
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
@@ -17259,7 +17411,7 @@
     </row>
     <row r="578" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A578" s="4"/>
-      <c r="B578" s="15"/>
+      <c r="B578" s="11"/>
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
@@ -17287,7 +17439,7 @@
     </row>
     <row r="579" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A579" s="4"/>
-      <c r="B579" s="15"/>
+      <c r="B579" s="11"/>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
@@ -17315,7 +17467,7 @@
     </row>
     <row r="580" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A580" s="4"/>
-      <c r="B580" s="15"/>
+      <c r="B580" s="11"/>
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
@@ -17343,7 +17495,7 @@
     </row>
     <row r="581" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
-      <c r="B581" s="15"/>
+      <c r="B581" s="11"/>
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
@@ -17371,7 +17523,7 @@
     </row>
     <row r="582" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A582" s="4"/>
-      <c r="B582" s="15"/>
+      <c r="B582" s="11"/>
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
@@ -17399,7 +17551,7 @@
     </row>
     <row r="583" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A583" s="4"/>
-      <c r="B583" s="15"/>
+      <c r="B583" s="11"/>
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
@@ -17427,7 +17579,7 @@
     </row>
     <row r="584" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A584" s="4"/>
-      <c r="B584" s="15"/>
+      <c r="B584" s="11"/>
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
@@ -17455,7 +17607,7 @@
     </row>
     <row r="585" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A585" s="4"/>
-      <c r="B585" s="15"/>
+      <c r="B585" s="11"/>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
@@ -17483,7 +17635,7 @@
     </row>
     <row r="586" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A586" s="4"/>
-      <c r="B586" s="15"/>
+      <c r="B586" s="11"/>
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
@@ -17511,7 +17663,7 @@
     </row>
     <row r="587" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A587" s="4"/>
-      <c r="B587" s="15"/>
+      <c r="B587" s="11"/>
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
@@ -17539,7 +17691,7 @@
     </row>
     <row r="588" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A588" s="4"/>
-      <c r="B588" s="15"/>
+      <c r="B588" s="11"/>
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
@@ -17567,7 +17719,7 @@
     </row>
     <row r="589" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A589" s="4"/>
-      <c r="B589" s="15"/>
+      <c r="B589" s="11"/>
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
@@ -17595,7 +17747,7 @@
     </row>
     <row r="590" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A590" s="4"/>
-      <c r="B590" s="15"/>
+      <c r="B590" s="11"/>
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
@@ -17623,7 +17775,7 @@
     </row>
     <row r="591" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A591" s="4"/>
-      <c r="B591" s="15"/>
+      <c r="B591" s="11"/>
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
@@ -17651,7 +17803,7 @@
     </row>
     <row r="592" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A592" s="4"/>
-      <c r="B592" s="15"/>
+      <c r="B592" s="11"/>
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
@@ -17679,7 +17831,7 @@
     </row>
     <row r="593" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A593" s="4"/>
-      <c r="B593" s="15"/>
+      <c r="B593" s="11"/>
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
@@ -17707,7 +17859,7 @@
     </row>
     <row r="594" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A594" s="4"/>
-      <c r="B594" s="15"/>
+      <c r="B594" s="11"/>
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
@@ -17735,7 +17887,7 @@
     </row>
     <row r="595" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A595" s="4"/>
-      <c r="B595" s="15"/>
+      <c r="B595" s="11"/>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
@@ -17763,7 +17915,7 @@
     </row>
     <row r="596" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A596" s="4"/>
-      <c r="B596" s="15"/>
+      <c r="B596" s="11"/>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
@@ -17791,7 +17943,7 @@
     </row>
     <row r="597" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
-      <c r="B597" s="15"/>
+      <c r="B597" s="11"/>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
@@ -17819,7 +17971,7 @@
     </row>
     <row r="598" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
-      <c r="B598" s="15"/>
+      <c r="B598" s="11"/>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
@@ -17847,7 +17999,7 @@
     </row>
     <row r="599" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A599" s="4"/>
-      <c r="B599" s="15"/>
+      <c r="B599" s="11"/>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
@@ -17875,7 +18027,7 @@
     </row>
     <row r="600" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A600" s="4"/>
-      <c r="B600" s="15"/>
+      <c r="B600" s="11"/>
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
@@ -17903,7 +18055,7 @@
     </row>
     <row r="601" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A601" s="4"/>
-      <c r="B601" s="15"/>
+      <c r="B601" s="11"/>
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
@@ -17931,7 +18083,7 @@
     </row>
     <row r="602" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
-      <c r="B602" s="15"/>
+      <c r="B602" s="11"/>
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
@@ -17959,7 +18111,7 @@
     </row>
     <row r="603" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A603" s="4"/>
-      <c r="B603" s="15"/>
+      <c r="B603" s="11"/>
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
@@ -17987,7 +18139,7 @@
     </row>
     <row r="604" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A604" s="4"/>
-      <c r="B604" s="15"/>
+      <c r="B604" s="11"/>
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
@@ -18015,7 +18167,7 @@
     </row>
     <row r="605" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A605" s="4"/>
-      <c r="B605" s="15"/>
+      <c r="B605" s="11"/>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
@@ -18043,7 +18195,7 @@
     </row>
     <row r="606" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A606" s="4"/>
-      <c r="B606" s="15"/>
+      <c r="B606" s="11"/>
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
@@ -18071,7 +18223,7 @@
     </row>
     <row r="607" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A607" s="4"/>
-      <c r="B607" s="15"/>
+      <c r="B607" s="11"/>
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
@@ -18099,7 +18251,7 @@
     </row>
     <row r="608" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A608" s="4"/>
-      <c r="B608" s="15"/>
+      <c r="B608" s="11"/>
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
@@ -18127,7 +18279,7 @@
     </row>
     <row r="609" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A609" s="4"/>
-      <c r="B609" s="15"/>
+      <c r="B609" s="11"/>
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
@@ -18155,7 +18307,7 @@
     </row>
     <row r="610" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A610" s="4"/>
-      <c r="B610" s="15"/>
+      <c r="B610" s="11"/>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
@@ -18183,7 +18335,7 @@
     </row>
     <row r="611" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A611" s="4"/>
-      <c r="B611" s="15"/>
+      <c r="B611" s="11"/>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
@@ -18211,7 +18363,7 @@
     </row>
     <row r="612" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A612" s="4"/>
-      <c r="B612" s="15"/>
+      <c r="B612" s="11"/>
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
@@ -18239,7 +18391,7 @@
     </row>
     <row r="613" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A613" s="4"/>
-      <c r="B613" s="15"/>
+      <c r="B613" s="11"/>
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
@@ -18267,7 +18419,7 @@
     </row>
     <row r="614" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A614" s="4"/>
-      <c r="B614" s="15"/>
+      <c r="B614" s="11"/>
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
@@ -18295,7 +18447,7 @@
     </row>
     <row r="615" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A615" s="4"/>
-      <c r="B615" s="15"/>
+      <c r="B615" s="11"/>
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
@@ -18323,7 +18475,7 @@
     </row>
     <row r="616" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A616" s="4"/>
-      <c r="B616" s="15"/>
+      <c r="B616" s="11"/>
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
@@ -18351,7 +18503,7 @@
     </row>
     <row r="617" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A617" s="4"/>
-      <c r="B617" s="15"/>
+      <c r="B617" s="11"/>
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
@@ -18379,7 +18531,7 @@
     </row>
     <row r="618" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A618" s="4"/>
-      <c r="B618" s="15"/>
+      <c r="B618" s="11"/>
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
@@ -18407,7 +18559,7 @@
     </row>
     <row r="619" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A619" s="4"/>
-      <c r="B619" s="15"/>
+      <c r="B619" s="11"/>
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
@@ -18435,7 +18587,7 @@
     </row>
     <row r="620" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A620" s="4"/>
-      <c r="B620" s="15"/>
+      <c r="B620" s="11"/>
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
@@ -18463,7 +18615,7 @@
     </row>
     <row r="621" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A621" s="4"/>
-      <c r="B621" s="15"/>
+      <c r="B621" s="11"/>
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
@@ -18491,7 +18643,7 @@
     </row>
     <row r="622" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A622" s="4"/>
-      <c r="B622" s="15"/>
+      <c r="B622" s="11"/>
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
@@ -18519,7 +18671,7 @@
     </row>
     <row r="623" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A623" s="4"/>
-      <c r="B623" s="15"/>
+      <c r="B623" s="11"/>
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
@@ -18547,7 +18699,7 @@
     </row>
     <row r="624" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A624" s="4"/>
-      <c r="B624" s="15"/>
+      <c r="B624" s="11"/>
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
@@ -18575,7 +18727,7 @@
     </row>
     <row r="625" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A625" s="4"/>
-      <c r="B625" s="15"/>
+      <c r="B625" s="11"/>
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
@@ -18603,7 +18755,7 @@
     </row>
     <row r="626" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A626" s="4"/>
-      <c r="B626" s="15"/>
+      <c r="B626" s="11"/>
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
@@ -18631,7 +18783,7 @@
     </row>
     <row r="627" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A627" s="4"/>
-      <c r="B627" s="15"/>
+      <c r="B627" s="11"/>
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
@@ -18659,7 +18811,7 @@
     </row>
     <row r="628" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A628" s="4"/>
-      <c r="B628" s="15"/>
+      <c r="B628" s="11"/>
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
@@ -18687,7 +18839,7 @@
     </row>
     <row r="629" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A629" s="4"/>
-      <c r="B629" s="15"/>
+      <c r="B629" s="11"/>
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
@@ -18715,7 +18867,7 @@
     </row>
     <row r="630" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A630" s="4"/>
-      <c r="B630" s="15"/>
+      <c r="B630" s="11"/>
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
@@ -18743,7 +18895,7 @@
     </row>
     <row r="631" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A631" s="4"/>
-      <c r="B631" s="15"/>
+      <c r="B631" s="11"/>
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
@@ -18771,7 +18923,7 @@
     </row>
     <row r="632" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A632" s="4"/>
-      <c r="B632" s="15"/>
+      <c r="B632" s="11"/>
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
@@ -18799,7 +18951,7 @@
     </row>
     <row r="633" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A633" s="4"/>
-      <c r="B633" s="15"/>
+      <c r="B633" s="11"/>
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
@@ -18827,7 +18979,7 @@
     </row>
     <row r="634" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A634" s="4"/>
-      <c r="B634" s="15"/>
+      <c r="B634" s="11"/>
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
@@ -18855,7 +19007,7 @@
     </row>
     <row r="635" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A635" s="4"/>
-      <c r="B635" s="15"/>
+      <c r="B635" s="11"/>
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
@@ -18883,7 +19035,7 @@
     </row>
     <row r="636" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A636" s="4"/>
-      <c r="B636" s="15"/>
+      <c r="B636" s="11"/>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
@@ -18911,7 +19063,7 @@
     </row>
     <row r="637" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A637" s="4"/>
-      <c r="B637" s="15"/>
+      <c r="B637" s="11"/>
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
@@ -18939,7 +19091,7 @@
     </row>
     <row r="638" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A638" s="4"/>
-      <c r="B638" s="15"/>
+      <c r="B638" s="11"/>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
@@ -18967,7 +19119,7 @@
     </row>
     <row r="639" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A639" s="4"/>
-      <c r="B639" s="15"/>
+      <c r="B639" s="11"/>
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
@@ -18995,7 +19147,7 @@
     </row>
     <row r="640" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A640" s="4"/>
-      <c r="B640" s="15"/>
+      <c r="B640" s="11"/>
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
@@ -19023,7 +19175,7 @@
     </row>
     <row r="641" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A641" s="4"/>
-      <c r="B641" s="15"/>
+      <c r="B641" s="11"/>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
@@ -19051,7 +19203,7 @@
     </row>
     <row r="642" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A642" s="4"/>
-      <c r="B642" s="15"/>
+      <c r="B642" s="11"/>
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
@@ -19079,7 +19231,7 @@
     </row>
     <row r="643" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A643" s="4"/>
-      <c r="B643" s="15"/>
+      <c r="B643" s="11"/>
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
@@ -19107,7 +19259,7 @@
     </row>
     <row r="644" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A644" s="4"/>
-      <c r="B644" s="15"/>
+      <c r="B644" s="11"/>
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
@@ -19135,7 +19287,7 @@
     </row>
     <row r="645" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A645" s="4"/>
-      <c r="B645" s="15"/>
+      <c r="B645" s="11"/>
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
@@ -19163,7 +19315,7 @@
     </row>
     <row r="646" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A646" s="4"/>
-      <c r="B646" s="15"/>
+      <c r="B646" s="11"/>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
@@ -19191,7 +19343,7 @@
     </row>
     <row r="647" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A647" s="4"/>
-      <c r="B647" s="15"/>
+      <c r="B647" s="11"/>
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
@@ -19219,7 +19371,7 @@
     </row>
     <row r="648" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A648" s="4"/>
-      <c r="B648" s="15"/>
+      <c r="B648" s="11"/>
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
@@ -19247,7 +19399,7 @@
     </row>
     <row r="649" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A649" s="4"/>
-      <c r="B649" s="15"/>
+      <c r="B649" s="11"/>
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
@@ -19275,7 +19427,7 @@
     </row>
     <row r="650" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A650" s="4"/>
-      <c r="B650" s="15"/>
+      <c r="B650" s="11"/>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
@@ -19303,7 +19455,7 @@
     </row>
     <row r="651" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A651" s="4"/>
-      <c r="B651" s="15"/>
+      <c r="B651" s="11"/>
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
@@ -19331,7 +19483,7 @@
     </row>
     <row r="652" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A652" s="4"/>
-      <c r="B652" s="15"/>
+      <c r="B652" s="11"/>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
@@ -19359,7 +19511,7 @@
     </row>
     <row r="653" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A653" s="4"/>
-      <c r="B653" s="15"/>
+      <c r="B653" s="11"/>
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
@@ -19387,7 +19539,7 @@
     </row>
     <row r="654" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A654" s="4"/>
-      <c r="B654" s="15"/>
+      <c r="B654" s="11"/>
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
@@ -19415,7 +19567,7 @@
     </row>
     <row r="655" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A655" s="4"/>
-      <c r="B655" s="15"/>
+      <c r="B655" s="11"/>
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
@@ -19443,7 +19595,7 @@
     </row>
     <row r="656" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A656" s="4"/>
-      <c r="B656" s="15"/>
+      <c r="B656" s="11"/>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
@@ -19471,7 +19623,7 @@
     </row>
     <row r="657" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A657" s="4"/>
-      <c r="B657" s="15"/>
+      <c r="B657" s="11"/>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
@@ -19499,7 +19651,7 @@
     </row>
     <row r="658" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A658" s="4"/>
-      <c r="B658" s="15"/>
+      <c r="B658" s="11"/>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
@@ -19527,7 +19679,7 @@
     </row>
     <row r="659" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A659" s="4"/>
-      <c r="B659" s="15"/>
+      <c r="B659" s="11"/>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
@@ -19555,7 +19707,7 @@
     </row>
     <row r="660" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A660" s="4"/>
-      <c r="B660" s="15"/>
+      <c r="B660" s="11"/>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
@@ -19583,7 +19735,7 @@
     </row>
     <row r="661" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A661" s="4"/>
-      <c r="B661" s="15"/>
+      <c r="B661" s="11"/>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
@@ -19611,7 +19763,7 @@
     </row>
     <row r="662" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A662" s="4"/>
-      <c r="B662" s="15"/>
+      <c r="B662" s="11"/>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
@@ -19639,7 +19791,7 @@
     </row>
     <row r="663" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A663" s="4"/>
-      <c r="B663" s="15"/>
+      <c r="B663" s="11"/>
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
@@ -19667,7 +19819,7 @@
     </row>
     <row r="664" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A664" s="4"/>
-      <c r="B664" s="15"/>
+      <c r="B664" s="11"/>
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
@@ -19695,7 +19847,7 @@
     </row>
     <row r="665" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A665" s="4"/>
-      <c r="B665" s="15"/>
+      <c r="B665" s="11"/>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
@@ -19723,7 +19875,7 @@
     </row>
     <row r="666" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A666" s="4"/>
-      <c r="B666" s="15"/>
+      <c r="B666" s="11"/>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
@@ -19751,7 +19903,7 @@
     </row>
     <row r="667" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A667" s="4"/>
-      <c r="B667" s="15"/>
+      <c r="B667" s="11"/>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
@@ -19779,7 +19931,7 @@
     </row>
     <row r="668" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A668" s="4"/>
-      <c r="B668" s="15"/>
+      <c r="B668" s="11"/>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
@@ -19807,7 +19959,7 @@
     </row>
     <row r="669" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A669" s="4"/>
-      <c r="B669" s="15"/>
+      <c r="B669" s="11"/>
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
@@ -19835,7 +19987,7 @@
     </row>
     <row r="670" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A670" s="4"/>
-      <c r="B670" s="15"/>
+      <c r="B670" s="11"/>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
@@ -19863,7 +20015,7 @@
     </row>
     <row r="671" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A671" s="4"/>
-      <c r="B671" s="15"/>
+      <c r="B671" s="11"/>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
@@ -19891,7 +20043,7 @@
     </row>
     <row r="672" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A672" s="4"/>
-      <c r="B672" s="15"/>
+      <c r="B672" s="11"/>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
@@ -19919,7 +20071,7 @@
     </row>
     <row r="673" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A673" s="4"/>
-      <c r="B673" s="15"/>
+      <c r="B673" s="11"/>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
@@ -19947,7 +20099,7 @@
     </row>
     <row r="674" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A674" s="4"/>
-      <c r="B674" s="15"/>
+      <c r="B674" s="11"/>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
@@ -19975,7 +20127,7 @@
     </row>
     <row r="675" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A675" s="4"/>
-      <c r="B675" s="15"/>
+      <c r="B675" s="11"/>
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
@@ -20003,7 +20155,7 @@
     </row>
     <row r="676" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A676" s="4"/>
-      <c r="B676" s="15"/>
+      <c r="B676" s="11"/>
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
@@ -20031,7 +20183,7 @@
     </row>
     <row r="677" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A677" s="4"/>
-      <c r="B677" s="15"/>
+      <c r="B677" s="11"/>
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
@@ -20059,7 +20211,7 @@
     </row>
     <row r="678" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A678" s="4"/>
-      <c r="B678" s="15"/>
+      <c r="B678" s="11"/>
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
@@ -20087,7 +20239,7 @@
     </row>
     <row r="679" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A679" s="4"/>
-      <c r="B679" s="15"/>
+      <c r="B679" s="11"/>
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
@@ -20115,7 +20267,7 @@
     </row>
     <row r="680" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A680" s="4"/>
-      <c r="B680" s="15"/>
+      <c r="B680" s="11"/>
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
@@ -20143,7 +20295,7 @@
     </row>
     <row r="681" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A681" s="4"/>
-      <c r="B681" s="15"/>
+      <c r="B681" s="11"/>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
@@ -20171,7 +20323,7 @@
     </row>
     <row r="682" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A682" s="4"/>
-      <c r="B682" s="15"/>
+      <c r="B682" s="11"/>
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
@@ -20199,7 +20351,7 @@
     </row>
     <row r="683" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A683" s="4"/>
-      <c r="B683" s="15"/>
+      <c r="B683" s="11"/>
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
@@ -20227,7 +20379,7 @@
     </row>
     <row r="684" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A684" s="4"/>
-      <c r="B684" s="15"/>
+      <c r="B684" s="11"/>
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
@@ -20255,7 +20407,7 @@
     </row>
     <row r="685" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A685" s="4"/>
-      <c r="B685" s="15"/>
+      <c r="B685" s="11"/>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
@@ -20283,7 +20435,7 @@
     </row>
     <row r="686" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A686" s="4"/>
-      <c r="B686" s="15"/>
+      <c r="B686" s="11"/>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
@@ -20311,7 +20463,7 @@
     </row>
     <row r="687" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A687" s="4"/>
-      <c r="B687" s="15"/>
+      <c r="B687" s="11"/>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
@@ -20339,7 +20491,7 @@
     </row>
     <row r="688" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A688" s="4"/>
-      <c r="B688" s="15"/>
+      <c r="B688" s="11"/>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
@@ -20367,7 +20519,7 @@
     </row>
     <row r="689" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A689" s="4"/>
-      <c r="B689" s="15"/>
+      <c r="B689" s="11"/>
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
@@ -20395,7 +20547,7 @@
     </row>
     <row r="690" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A690" s="4"/>
-      <c r="B690" s="15"/>
+      <c r="B690" s="11"/>
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
@@ -20423,7 +20575,7 @@
     </row>
     <row r="691" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A691" s="4"/>
-      <c r="B691" s="15"/>
+      <c r="B691" s="11"/>
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
@@ -20451,7 +20603,7 @@
     </row>
     <row r="692" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A692" s="4"/>
-      <c r="B692" s="15"/>
+      <c r="B692" s="11"/>
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
@@ -20479,7 +20631,7 @@
     </row>
     <row r="693" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A693" s="4"/>
-      <c r="B693" s="15"/>
+      <c r="B693" s="11"/>
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
@@ -20507,7 +20659,7 @@
     </row>
     <row r="694" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A694" s="4"/>
-      <c r="B694" s="15"/>
+      <c r="B694" s="11"/>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
@@ -20535,7 +20687,7 @@
     </row>
     <row r="695" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A695" s="4"/>
-      <c r="B695" s="15"/>
+      <c r="B695" s="11"/>
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
@@ -20563,7 +20715,7 @@
     </row>
     <row r="696" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A696" s="4"/>
-      <c r="B696" s="15"/>
+      <c r="B696" s="11"/>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
@@ -20591,7 +20743,7 @@
     </row>
     <row r="697" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A697" s="4"/>
-      <c r="B697" s="15"/>
+      <c r="B697" s="11"/>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
@@ -20619,7 +20771,7 @@
     </row>
     <row r="698" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A698" s="4"/>
-      <c r="B698" s="15"/>
+      <c r="B698" s="11"/>
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
@@ -20647,7 +20799,7 @@
     </row>
     <row r="699" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A699" s="4"/>
-      <c r="B699" s="15"/>
+      <c r="B699" s="11"/>
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
@@ -20675,7 +20827,7 @@
     </row>
     <row r="700" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A700" s="4"/>
-      <c r="B700" s="15"/>
+      <c r="B700" s="11"/>
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
@@ -20703,7 +20855,7 @@
     </row>
     <row r="701" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A701" s="4"/>
-      <c r="B701" s="15"/>
+      <c r="B701" s="11"/>
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
@@ -20731,7 +20883,7 @@
     </row>
     <row r="702" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A702" s="4"/>
-      <c r="B702" s="15"/>
+      <c r="B702" s="11"/>
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
@@ -20759,7 +20911,7 @@
     </row>
     <row r="703" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A703" s="4"/>
-      <c r="B703" s="15"/>
+      <c r="B703" s="11"/>
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
@@ -20787,7 +20939,7 @@
     </row>
     <row r="704" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A704" s="4"/>
-      <c r="B704" s="15"/>
+      <c r="B704" s="11"/>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
@@ -20815,7 +20967,7 @@
     </row>
     <row r="705" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A705" s="4"/>
-      <c r="B705" s="15"/>
+      <c r="B705" s="11"/>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
@@ -20843,7 +20995,7 @@
     </row>
     <row r="706" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A706" s="4"/>
-      <c r="B706" s="15"/>
+      <c r="B706" s="11"/>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
@@ -20871,7 +21023,7 @@
     </row>
     <row r="707" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A707" s="4"/>
-      <c r="B707" s="15"/>
+      <c r="B707" s="11"/>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
@@ -20899,7 +21051,7 @@
     </row>
     <row r="708" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A708" s="4"/>
-      <c r="B708" s="15"/>
+      <c r="B708" s="11"/>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
@@ -20927,7 +21079,7 @@
     </row>
     <row r="709" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A709" s="4"/>
-      <c r="B709" s="15"/>
+      <c r="B709" s="11"/>
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
@@ -20955,7 +21107,7 @@
     </row>
     <row r="710" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A710" s="4"/>
-      <c r="B710" s="15"/>
+      <c r="B710" s="11"/>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
@@ -20983,7 +21135,7 @@
     </row>
     <row r="711" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A711" s="4"/>
-      <c r="B711" s="15"/>
+      <c r="B711" s="11"/>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
@@ -21011,7 +21163,7 @@
     </row>
     <row r="712" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A712" s="4"/>
-      <c r="B712" s="15"/>
+      <c r="B712" s="11"/>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
@@ -21039,7 +21191,7 @@
     </row>
     <row r="713" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A713" s="4"/>
-      <c r="B713" s="15"/>
+      <c r="B713" s="11"/>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
@@ -21067,7 +21219,7 @@
     </row>
     <row r="714" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A714" s="4"/>
-      <c r="B714" s="15"/>
+      <c r="B714" s="11"/>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
@@ -21095,7 +21247,7 @@
     </row>
     <row r="715" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A715" s="4"/>
-      <c r="B715" s="15"/>
+      <c r="B715" s="11"/>
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
@@ -21123,7 +21275,7 @@
     </row>
     <row r="716" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A716" s="4"/>
-      <c r="B716" s="15"/>
+      <c r="B716" s="11"/>
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
@@ -21151,7 +21303,7 @@
     </row>
     <row r="717" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A717" s="4"/>
-      <c r="B717" s="15"/>
+      <c r="B717" s="11"/>
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
@@ -21179,7 +21331,7 @@
     </row>
     <row r="718" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A718" s="4"/>
-      <c r="B718" s="15"/>
+      <c r="B718" s="11"/>
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
@@ -21207,7 +21359,7 @@
     </row>
     <row r="719" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A719" s="4"/>
-      <c r="B719" s="15"/>
+      <c r="B719" s="11"/>
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
@@ -21235,7 +21387,7 @@
     </row>
     <row r="720" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A720" s="4"/>
-      <c r="B720" s="15"/>
+      <c r="B720" s="11"/>
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
@@ -21263,7 +21415,7 @@
     </row>
     <row r="721" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A721" s="4"/>
-      <c r="B721" s="15"/>
+      <c r="B721" s="11"/>
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
@@ -21291,7 +21443,7 @@
     </row>
     <row r="722" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A722" s="4"/>
-      <c r="B722" s="15"/>
+      <c r="B722" s="11"/>
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
@@ -21319,7 +21471,7 @@
     </row>
     <row r="723" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A723" s="4"/>
-      <c r="B723" s="15"/>
+      <c r="B723" s="11"/>
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
@@ -21347,7 +21499,7 @@
     </row>
     <row r="724" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A724" s="4"/>
-      <c r="B724" s="15"/>
+      <c r="B724" s="11"/>
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
@@ -21375,7 +21527,7 @@
     </row>
     <row r="725" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A725" s="4"/>
-      <c r="B725" s="15"/>
+      <c r="B725" s="11"/>
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
@@ -21403,7 +21555,7 @@
     </row>
     <row r="726" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A726" s="4"/>
-      <c r="B726" s="15"/>
+      <c r="B726" s="11"/>
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
@@ -21431,7 +21583,7 @@
     </row>
     <row r="727" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A727" s="4"/>
-      <c r="B727" s="15"/>
+      <c r="B727" s="11"/>
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
@@ -21459,7 +21611,7 @@
     </row>
     <row r="728" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A728" s="4"/>
-      <c r="B728" s="15"/>
+      <c r="B728" s="11"/>
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
@@ -21487,7 +21639,7 @@
     </row>
     <row r="729" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A729" s="4"/>
-      <c r="B729" s="15"/>
+      <c r="B729" s="11"/>
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
@@ -21515,7 +21667,7 @@
     </row>
     <row r="730" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A730" s="4"/>
-      <c r="B730" s="15"/>
+      <c r="B730" s="11"/>
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
@@ -21543,7 +21695,7 @@
     </row>
     <row r="731" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A731" s="4"/>
-      <c r="B731" s="15"/>
+      <c r="B731" s="11"/>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
@@ -21571,7 +21723,7 @@
     </row>
     <row r="732" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A732" s="4"/>
-      <c r="B732" s="15"/>
+      <c r="B732" s="11"/>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
@@ -21599,7 +21751,7 @@
     </row>
     <row r="733" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A733" s="4"/>
-      <c r="B733" s="15"/>
+      <c r="B733" s="11"/>
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
@@ -21627,7 +21779,7 @@
     </row>
     <row r="734" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A734" s="4"/>
-      <c r="B734" s="15"/>
+      <c r="B734" s="11"/>
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
@@ -21655,7 +21807,7 @@
     </row>
     <row r="735" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A735" s="4"/>
-      <c r="B735" s="15"/>
+      <c r="B735" s="11"/>
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
@@ -21683,7 +21835,7 @@
     </row>
     <row r="736" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A736" s="4"/>
-      <c r="B736" s="15"/>
+      <c r="B736" s="11"/>
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
@@ -21711,7 +21863,7 @@
     </row>
     <row r="737" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A737" s="4"/>
-      <c r="B737" s="15"/>
+      <c r="B737" s="11"/>
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
@@ -21739,7 +21891,7 @@
     </row>
     <row r="738" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A738" s="4"/>
-      <c r="B738" s="15"/>
+      <c r="B738" s="11"/>
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
@@ -21767,7 +21919,7 @@
     </row>
     <row r="739" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A739" s="4"/>
-      <c r="B739" s="15"/>
+      <c r="B739" s="11"/>
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
@@ -21795,7 +21947,7 @@
     </row>
     <row r="740" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A740" s="4"/>
-      <c r="B740" s="15"/>
+      <c r="B740" s="11"/>
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
@@ -21823,7 +21975,7 @@
     </row>
     <row r="741" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A741" s="4"/>
-      <c r="B741" s="15"/>
+      <c r="B741" s="11"/>
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
@@ -21851,7 +22003,7 @@
     </row>
     <row r="742" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A742" s="4"/>
-      <c r="B742" s="15"/>
+      <c r="B742" s="11"/>
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
@@ -21879,7 +22031,7 @@
     </row>
     <row r="743" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A743" s="4"/>
-      <c r="B743" s="15"/>
+      <c r="B743" s="11"/>
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
@@ -21907,7 +22059,7 @@
     </row>
     <row r="744" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A744" s="4"/>
-      <c r="B744" s="15"/>
+      <c r="B744" s="11"/>
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
@@ -21935,7 +22087,7 @@
     </row>
     <row r="745" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A745" s="4"/>
-      <c r="B745" s="15"/>
+      <c r="B745" s="11"/>
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
@@ -21963,7 +22115,7 @@
     </row>
     <row r="746" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A746" s="4"/>
-      <c r="B746" s="15"/>
+      <c r="B746" s="11"/>
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
@@ -21991,7 +22143,7 @@
     </row>
     <row r="747" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A747" s="4"/>
-      <c r="B747" s="15"/>
+      <c r="B747" s="11"/>
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
@@ -22019,7 +22171,7 @@
     </row>
     <row r="748" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A748" s="4"/>
-      <c r="B748" s="15"/>
+      <c r="B748" s="11"/>
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
@@ -22047,7 +22199,7 @@
     </row>
     <row r="749" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A749" s="4"/>
-      <c r="B749" s="15"/>
+      <c r="B749" s="11"/>
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
@@ -22075,7 +22227,7 @@
     </row>
     <row r="750" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A750" s="4"/>
-      <c r="B750" s="15"/>
+      <c r="B750" s="11"/>
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
@@ -22103,7 +22255,7 @@
     </row>
     <row r="751" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A751" s="4"/>
-      <c r="B751" s="15"/>
+      <c r="B751" s="11"/>
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
@@ -22131,7 +22283,7 @@
     </row>
     <row r="752" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A752" s="4"/>
-      <c r="B752" s="15"/>
+      <c r="B752" s="11"/>
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
@@ -22159,7 +22311,7 @@
     </row>
     <row r="753" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A753" s="4"/>
-      <c r="B753" s="15"/>
+      <c r="B753" s="11"/>
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
@@ -22187,7 +22339,7 @@
     </row>
     <row r="754" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A754" s="4"/>
-      <c r="B754" s="15"/>
+      <c r="B754" s="11"/>
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
@@ -22215,7 +22367,7 @@
     </row>
     <row r="755" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A755" s="4"/>
-      <c r="B755" s="15"/>
+      <c r="B755" s="11"/>
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
@@ -22243,7 +22395,7 @@
     </row>
     <row r="756" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A756" s="4"/>
-      <c r="B756" s="15"/>
+      <c r="B756" s="11"/>
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
@@ -22271,7 +22423,7 @@
     </row>
     <row r="757" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A757" s="4"/>
-      <c r="B757" s="15"/>
+      <c r="B757" s="11"/>
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
@@ -22299,7 +22451,7 @@
     </row>
     <row r="758" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A758" s="4"/>
-      <c r="B758" s="15"/>
+      <c r="B758" s="11"/>
       <c r="C758" s="4"/>
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
@@ -22327,7 +22479,7 @@
     </row>
     <row r="759" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A759" s="4"/>
-      <c r="B759" s="15"/>
+      <c r="B759" s="11"/>
       <c r="C759" s="4"/>
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
@@ -22355,7 +22507,7 @@
     </row>
     <row r="760" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A760" s="4"/>
-      <c r="B760" s="15"/>
+      <c r="B760" s="11"/>
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
@@ -22383,7 +22535,7 @@
     </row>
     <row r="761" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A761" s="4"/>
-      <c r="B761" s="15"/>
+      <c r="B761" s="11"/>
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
@@ -22411,7 +22563,7 @@
     </row>
     <row r="762" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A762" s="4"/>
-      <c r="B762" s="15"/>
+      <c r="B762" s="11"/>
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
@@ -22439,7 +22591,7 @@
     </row>
     <row r="763" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A763" s="4"/>
-      <c r="B763" s="15"/>
+      <c r="B763" s="11"/>
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
@@ -22467,7 +22619,7 @@
     </row>
     <row r="764" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A764" s="4"/>
-      <c r="B764" s="15"/>
+      <c r="B764" s="11"/>
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
@@ -22495,7 +22647,7 @@
     </row>
     <row r="765" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A765" s="4"/>
-      <c r="B765" s="15"/>
+      <c r="B765" s="11"/>
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
@@ -22523,7 +22675,7 @@
     </row>
     <row r="766" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A766" s="4"/>
-      <c r="B766" s="15"/>
+      <c r="B766" s="11"/>
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
@@ -22551,7 +22703,7 @@
     </row>
     <row r="767" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A767" s="4"/>
-      <c r="B767" s="15"/>
+      <c r="B767" s="11"/>
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
@@ -22579,7 +22731,7 @@
     </row>
     <row r="768" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A768" s="4"/>
-      <c r="B768" s="15"/>
+      <c r="B768" s="11"/>
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
@@ -22607,7 +22759,7 @@
     </row>
     <row r="769" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A769" s="4"/>
-      <c r="B769" s="15"/>
+      <c r="B769" s="11"/>
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
@@ -22635,7 +22787,7 @@
     </row>
     <row r="770" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A770" s="4"/>
-      <c r="B770" s="15"/>
+      <c r="B770" s="11"/>
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
@@ -22663,7 +22815,7 @@
     </row>
     <row r="771" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A771" s="4"/>
-      <c r="B771" s="15"/>
+      <c r="B771" s="11"/>
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
@@ -22691,7 +22843,7 @@
     </row>
     <row r="772" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A772" s="4"/>
-      <c r="B772" s="15"/>
+      <c r="B772" s="11"/>
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
@@ -22719,7 +22871,7 @@
     </row>
     <row r="773" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A773" s="4"/>
-      <c r="B773" s="15"/>
+      <c r="B773" s="11"/>
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
@@ -22747,7 +22899,7 @@
     </row>
     <row r="774" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A774" s="4"/>
-      <c r="B774" s="15"/>
+      <c r="B774" s="11"/>
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
@@ -22775,7 +22927,7 @@
     </row>
     <row r="775" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A775" s="4"/>
-      <c r="B775" s="15"/>
+      <c r="B775" s="11"/>
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
@@ -22803,7 +22955,7 @@
     </row>
     <row r="776" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A776" s="4"/>
-      <c r="B776" s="15"/>
+      <c r="B776" s="11"/>
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
@@ -22831,7 +22983,7 @@
     </row>
     <row r="777" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A777" s="4"/>
-      <c r="B777" s="15"/>
+      <c r="B777" s="11"/>
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
@@ -22859,7 +23011,7 @@
     </row>
     <row r="778" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A778" s="4"/>
-      <c r="B778" s="15"/>
+      <c r="B778" s="11"/>
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
@@ -22887,7 +23039,7 @@
     </row>
     <row r="779" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A779" s="4"/>
-      <c r="B779" s="15"/>
+      <c r="B779" s="11"/>
       <c r="C779" s="4"/>
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
@@ -22915,7 +23067,7 @@
     </row>
     <row r="780" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A780" s="4"/>
-      <c r="B780" s="15"/>
+      <c r="B780" s="11"/>
       <c r="C780" s="4"/>
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
@@ -22943,7 +23095,7 @@
     </row>
     <row r="781" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A781" s="4"/>
-      <c r="B781" s="15"/>
+      <c r="B781" s="11"/>
       <c r="C781" s="4"/>
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
@@ -22971,7 +23123,7 @@
     </row>
     <row r="782" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A782" s="4"/>
-      <c r="B782" s="15"/>
+      <c r="B782" s="11"/>
       <c r="C782" s="4"/>
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
@@ -22999,7 +23151,7 @@
     </row>
     <row r="783" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A783" s="4"/>
-      <c r="B783" s="15"/>
+      <c r="B783" s="11"/>
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
@@ -23027,7 +23179,7 @@
     </row>
     <row r="784" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A784" s="4"/>
-      <c r="B784" s="15"/>
+      <c r="B784" s="11"/>
       <c r="C784" s="4"/>
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
@@ -23055,7 +23207,7 @@
     </row>
     <row r="785" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A785" s="4"/>
-      <c r="B785" s="15"/>
+      <c r="B785" s="11"/>
       <c r="C785" s="4"/>
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
@@ -23083,7 +23235,7 @@
     </row>
     <row r="786" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A786" s="4"/>
-      <c r="B786" s="15"/>
+      <c r="B786" s="11"/>
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
@@ -23111,7 +23263,7 @@
     </row>
     <row r="787" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A787" s="4"/>
-      <c r="B787" s="15"/>
+      <c r="B787" s="11"/>
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
@@ -23139,7 +23291,7 @@
     </row>
     <row r="788" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A788" s="4"/>
-      <c r="B788" s="15"/>
+      <c r="B788" s="11"/>
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
@@ -23167,7 +23319,7 @@
     </row>
     <row r="789" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A789" s="4"/>
-      <c r="B789" s="15"/>
+      <c r="B789" s="11"/>
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
@@ -23195,7 +23347,7 @@
     </row>
     <row r="790" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A790" s="4"/>
-      <c r="B790" s="15"/>
+      <c r="B790" s="11"/>
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
@@ -23223,7 +23375,7 @@
     </row>
     <row r="791" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A791" s="4"/>
-      <c r="B791" s="15"/>
+      <c r="B791" s="11"/>
       <c r="C791" s="4"/>
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
@@ -23251,7 +23403,7 @@
     </row>
     <row r="792" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A792" s="4"/>
-      <c r="B792" s="15"/>
+      <c r="B792" s="11"/>
       <c r="C792" s="4"/>
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
@@ -23279,7 +23431,7 @@
     </row>
     <row r="793" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A793" s="4"/>
-      <c r="B793" s="15"/>
+      <c r="B793" s="11"/>
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
@@ -23307,7 +23459,7 @@
     </row>
     <row r="794" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A794" s="4"/>
-      <c r="B794" s="15"/>
+      <c r="B794" s="11"/>
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
@@ -23335,7 +23487,7 @@
     </row>
     <row r="795" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A795" s="4"/>
-      <c r="B795" s="15"/>
+      <c r="B795" s="11"/>
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
@@ -23363,7 +23515,7 @@
     </row>
     <row r="796" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A796" s="4"/>
-      <c r="B796" s="15"/>
+      <c r="B796" s="11"/>
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
@@ -23391,7 +23543,7 @@
     </row>
     <row r="797" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A797" s="4"/>
-      <c r="B797" s="15"/>
+      <c r="B797" s="11"/>
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
@@ -23419,7 +23571,7 @@
     </row>
     <row r="798" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A798" s="4"/>
-      <c r="B798" s="15"/>
+      <c r="B798" s="11"/>
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
@@ -23447,7 +23599,7 @@
     </row>
     <row r="799" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A799" s="4"/>
-      <c r="B799" s="15"/>
+      <c r="B799" s="11"/>
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
@@ -23475,7 +23627,7 @@
     </row>
     <row r="800" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A800" s="4"/>
-      <c r="B800" s="15"/>
+      <c r="B800" s="11"/>
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
@@ -23503,7 +23655,7 @@
     </row>
     <row r="801" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A801" s="4"/>
-      <c r="B801" s="15"/>
+      <c r="B801" s="11"/>
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
@@ -23531,7 +23683,7 @@
     </row>
     <row r="802" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A802" s="4"/>
-      <c r="B802" s="15"/>
+      <c r="B802" s="11"/>
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
@@ -23559,7 +23711,7 @@
     </row>
     <row r="803" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A803" s="4"/>
-      <c r="B803" s="15"/>
+      <c r="B803" s="11"/>
       <c r="C803" s="4"/>
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
@@ -23587,7 +23739,7 @@
     </row>
     <row r="804" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A804" s="4"/>
-      <c r="B804" s="15"/>
+      <c r="B804" s="11"/>
       <c r="C804" s="4"/>
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
@@ -23615,7 +23767,7 @@
     </row>
     <row r="805" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A805" s="4"/>
-      <c r="B805" s="15"/>
+      <c r="B805" s="11"/>
       <c r="C805" s="4"/>
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
@@ -23643,7 +23795,7 @@
     </row>
     <row r="806" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A806" s="4"/>
-      <c r="B806" s="15"/>
+      <c r="B806" s="11"/>
       <c r="C806" s="4"/>
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
@@ -23671,7 +23823,7 @@
     </row>
     <row r="807" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A807" s="4"/>
-      <c r="B807" s="15"/>
+      <c r="B807" s="11"/>
       <c r="C807" s="4"/>
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
@@ -23699,7 +23851,7 @@
     </row>
     <row r="808" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A808" s="4"/>
-      <c r="B808" s="15"/>
+      <c r="B808" s="11"/>
       <c r="C808" s="4"/>
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
@@ -23727,7 +23879,7 @@
     </row>
     <row r="809" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A809" s="4"/>
-      <c r="B809" s="15"/>
+      <c r="B809" s="11"/>
       <c r="C809" s="4"/>
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
@@ -23755,7 +23907,7 @@
     </row>
     <row r="810" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A810" s="4"/>
-      <c r="B810" s="15"/>
+      <c r="B810" s="11"/>
       <c r="C810" s="4"/>
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
@@ -23783,7 +23935,7 @@
     </row>
     <row r="811" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A811" s="4"/>
-      <c r="B811" s="15"/>
+      <c r="B811" s="11"/>
       <c r="C811" s="4"/>
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
@@ -23811,7 +23963,7 @@
     </row>
     <row r="812" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A812" s="4"/>
-      <c r="B812" s="15"/>
+      <c r="B812" s="11"/>
       <c r="C812" s="4"/>
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
@@ -23839,7 +23991,7 @@
     </row>
     <row r="813" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A813" s="4"/>
-      <c r="B813" s="15"/>
+      <c r="B813" s="11"/>
       <c r="C813" s="4"/>
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
@@ -23867,7 +24019,7 @@
     </row>
     <row r="814" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A814" s="4"/>
-      <c r="B814" s="15"/>
+      <c r="B814" s="11"/>
       <c r="C814" s="4"/>
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
@@ -23895,7 +24047,7 @@
     </row>
     <row r="815" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A815" s="4"/>
-      <c r="B815" s="15"/>
+      <c r="B815" s="11"/>
       <c r="C815" s="4"/>
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
@@ -23923,7 +24075,7 @@
     </row>
     <row r="816" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A816" s="4"/>
-      <c r="B816" s="15"/>
+      <c r="B816" s="11"/>
       <c r="C816" s="4"/>
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
@@ -23951,7 +24103,7 @@
     </row>
     <row r="817" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A817" s="4"/>
-      <c r="B817" s="15"/>
+      <c r="B817" s="11"/>
       <c r="C817" s="4"/>
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
@@ -23979,7 +24131,7 @@
     </row>
     <row r="818" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A818" s="4"/>
-      <c r="B818" s="15"/>
+      <c r="B818" s="11"/>
       <c r="C818" s="4"/>
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
@@ -24007,7 +24159,7 @@
     </row>
     <row r="819" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A819" s="4"/>
-      <c r="B819" s="15"/>
+      <c r="B819" s="11"/>
       <c r="C819" s="4"/>
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
@@ -24035,7 +24187,7 @@
     </row>
     <row r="820" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A820" s="4"/>
-      <c r="B820" s="15"/>
+      <c r="B820" s="11"/>
       <c r="C820" s="4"/>
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
@@ -24063,7 +24215,7 @@
     </row>
     <row r="821" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A821" s="4"/>
-      <c r="B821" s="15"/>
+      <c r="B821" s="11"/>
       <c r="C821" s="4"/>
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
@@ -24091,7 +24243,7 @@
     </row>
     <row r="822" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A822" s="4"/>
-      <c r="B822" s="15"/>
+      <c r="B822" s="11"/>
       <c r="C822" s="4"/>
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
@@ -24119,7 +24271,7 @@
     </row>
     <row r="823" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A823" s="4"/>
-      <c r="B823" s="15"/>
+      <c r="B823" s="11"/>
       <c r="C823" s="4"/>
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
@@ -24147,7 +24299,7 @@
     </row>
     <row r="824" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A824" s="4"/>
-      <c r="B824" s="15"/>
+      <c r="B824" s="11"/>
       <c r="C824" s="4"/>
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
@@ -24175,7 +24327,7 @@
     </row>
     <row r="825" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A825" s="4"/>
-      <c r="B825" s="15"/>
+      <c r="B825" s="11"/>
       <c r="C825" s="4"/>
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
@@ -24203,7 +24355,7 @@
     </row>
     <row r="826" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A826" s="4"/>
-      <c r="B826" s="15"/>
+      <c r="B826" s="11"/>
       <c r="C826" s="4"/>
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
@@ -24231,7 +24383,7 @@
     </row>
     <row r="827" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A827" s="4"/>
-      <c r="B827" s="15"/>
+      <c r="B827" s="11"/>
       <c r="C827" s="4"/>
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
@@ -24259,7 +24411,7 @@
     </row>
     <row r="828" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A828" s="4"/>
-      <c r="B828" s="15"/>
+      <c r="B828" s="11"/>
       <c r="C828" s="4"/>
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
@@ -24287,7 +24439,7 @@
     </row>
     <row r="829" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A829" s="4"/>
-      <c r="B829" s="15"/>
+      <c r="B829" s="11"/>
       <c r="C829" s="4"/>
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
@@ -24315,7 +24467,7 @@
     </row>
     <row r="830" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A830" s="4"/>
-      <c r="B830" s="15"/>
+      <c r="B830" s="11"/>
       <c r="C830" s="4"/>
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
@@ -24343,7 +24495,7 @@
     </row>
     <row r="831" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A831" s="4"/>
-      <c r="B831" s="15"/>
+      <c r="B831" s="11"/>
       <c r="C831" s="4"/>
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
@@ -24371,7 +24523,7 @@
     </row>
     <row r="832" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A832" s="4"/>
-      <c r="B832" s="15"/>
+      <c r="B832" s="11"/>
       <c r="C832" s="4"/>
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
@@ -24399,7 +24551,7 @@
     </row>
     <row r="833" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A833" s="4"/>
-      <c r="B833" s="15"/>
+      <c r="B833" s="11"/>
       <c r="C833" s="4"/>
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
@@ -24427,7 +24579,7 @@
     </row>
     <row r="834" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A834" s="4"/>
-      <c r="B834" s="15"/>
+      <c r="B834" s="11"/>
       <c r="C834" s="4"/>
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
@@ -24455,7 +24607,7 @@
     </row>
     <row r="835" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A835" s="4"/>
-      <c r="B835" s="15"/>
+      <c r="B835" s="11"/>
       <c r="C835" s="4"/>
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
@@ -24483,7 +24635,7 @@
     </row>
     <row r="836" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A836" s="4"/>
-      <c r="B836" s="15"/>
+      <c r="B836" s="11"/>
       <c r="C836" s="4"/>
       <c r="D836" s="4"/>
       <c r="E836" s="4"/>
@@ -24511,7 +24663,7 @@
     </row>
     <row r="837" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A837" s="4"/>
-      <c r="B837" s="15"/>
+      <c r="B837" s="11"/>
       <c r="C837" s="4"/>
       <c r="D837" s="4"/>
       <c r="E837" s="4"/>
@@ -24539,7 +24691,7 @@
     </row>
     <row r="838" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A838" s="4"/>
-      <c r="B838" s="15"/>
+      <c r="B838" s="11"/>
       <c r="C838" s="4"/>
       <c r="D838" s="4"/>
       <c r="E838" s="4"/>
@@ -24567,7 +24719,7 @@
     </row>
     <row r="839" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A839" s="4"/>
-      <c r="B839" s="15"/>
+      <c r="B839" s="11"/>
       <c r="C839" s="4"/>
       <c r="D839" s="4"/>
       <c r="E839" s="4"/>
@@ -24595,7 +24747,7 @@
     </row>
     <row r="840" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A840" s="4"/>
-      <c r="B840" s="15"/>
+      <c r="B840" s="11"/>
       <c r="C840" s="4"/>
       <c r="D840" s="4"/>
       <c r="E840" s="4"/>
@@ -24623,7 +24775,7 @@
     </row>
     <row r="841" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A841" s="4"/>
-      <c r="B841" s="15"/>
+      <c r="B841" s="11"/>
       <c r="C841" s="4"/>
       <c r="D841" s="4"/>
       <c r="E841" s="4"/>
@@ -24651,7 +24803,7 @@
     </row>
     <row r="842" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A842" s="4"/>
-      <c r="B842" s="15"/>
+      <c r="B842" s="11"/>
       <c r="C842" s="4"/>
       <c r="D842" s="4"/>
       <c r="E842" s="4"/>
@@ -24679,7 +24831,7 @@
     </row>
     <row r="843" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A843" s="4"/>
-      <c r="B843" s="15"/>
+      <c r="B843" s="11"/>
       <c r="C843" s="4"/>
       <c r="D843" s="4"/>
       <c r="E843" s="4"/>
@@ -24707,7 +24859,7 @@
     </row>
     <row r="844" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A844" s="4"/>
-      <c r="B844" s="15"/>
+      <c r="B844" s="11"/>
       <c r="C844" s="4"/>
       <c r="D844" s="4"/>
       <c r="E844" s="4"/>
@@ -24735,7 +24887,7 @@
     </row>
     <row r="845" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A845" s="4"/>
-      <c r="B845" s="15"/>
+      <c r="B845" s="11"/>
       <c r="C845" s="4"/>
       <c r="D845" s="4"/>
       <c r="E845" s="4"/>
@@ -24763,7 +24915,7 @@
     </row>
     <row r="846" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A846" s="4"/>
-      <c r="B846" s="15"/>
+      <c r="B846" s="11"/>
       <c r="C846" s="4"/>
       <c r="D846" s="4"/>
       <c r="E846" s="4"/>
@@ -24791,7 +24943,7 @@
     </row>
     <row r="847" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A847" s="4"/>
-      <c r="B847" s="15"/>
+      <c r="B847" s="11"/>
       <c r="C847" s="4"/>
       <c r="D847" s="4"/>
       <c r="E847" s="4"/>
@@ -24819,7 +24971,7 @@
     </row>
     <row r="848" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A848" s="4"/>
-      <c r="B848" s="15"/>
+      <c r="B848" s="11"/>
       <c r="C848" s="4"/>
       <c r="D848" s="4"/>
       <c r="E848" s="4"/>
@@ -24847,7 +24999,7 @@
     </row>
     <row r="849" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A849" s="4"/>
-      <c r="B849" s="15"/>
+      <c r="B849" s="11"/>
       <c r="C849" s="4"/>
       <c r="D849" s="4"/>
       <c r="E849" s="4"/>
@@ -24875,7 +25027,7 @@
     </row>
     <row r="850" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A850" s="4"/>
-      <c r="B850" s="15"/>
+      <c r="B850" s="11"/>
       <c r="C850" s="4"/>
       <c r="D850" s="4"/>
       <c r="E850" s="4"/>
@@ -24903,7 +25055,7 @@
     </row>
     <row r="851" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A851" s="4"/>
-      <c r="B851" s="15"/>
+      <c r="B851" s="11"/>
       <c r="C851" s="4"/>
       <c r="D851" s="4"/>
       <c r="E851" s="4"/>
@@ -24931,7 +25083,7 @@
     </row>
     <row r="852" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A852" s="4"/>
-      <c r="B852" s="15"/>
+      <c r="B852" s="11"/>
       <c r="C852" s="4"/>
       <c r="D852" s="4"/>
       <c r="E852" s="4"/>
@@ -24959,7 +25111,7 @@
     </row>
     <row r="853" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A853" s="4"/>
-      <c r="B853" s="15"/>
+      <c r="B853" s="11"/>
       <c r="C853" s="4"/>
       <c r="D853" s="4"/>
       <c r="E853" s="4"/>
@@ -24987,7 +25139,7 @@
     </row>
     <row r="854" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A854" s="4"/>
-      <c r="B854" s="15"/>
+      <c r="B854" s="11"/>
       <c r="C854" s="4"/>
       <c r="D854" s="4"/>
       <c r="E854" s="4"/>
@@ -25015,7 +25167,7 @@
     </row>
     <row r="855" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A855" s="4"/>
-      <c r="B855" s="15"/>
+      <c r="B855" s="11"/>
       <c r="C855" s="4"/>
       <c r="D855" s="4"/>
       <c r="E855" s="4"/>
@@ -25043,7 +25195,7 @@
     </row>
     <row r="856" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A856" s="4"/>
-      <c r="B856" s="15"/>
+      <c r="B856" s="11"/>
       <c r="C856" s="4"/>
       <c r="D856" s="4"/>
       <c r="E856" s="4"/>
@@ -25071,7 +25223,7 @@
     </row>
     <row r="857" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A857" s="4"/>
-      <c r="B857" s="15"/>
+      <c r="B857" s="11"/>
       <c r="C857" s="4"/>
       <c r="D857" s="4"/>
       <c r="E857" s="4"/>
@@ -25099,7 +25251,7 @@
     </row>
     <row r="858" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A858" s="4"/>
-      <c r="B858" s="15"/>
+      <c r="B858" s="11"/>
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
       <c r="E858" s="4"/>
@@ -25127,7 +25279,7 @@
     </row>
     <row r="859" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A859" s="4"/>
-      <c r="B859" s="15"/>
+      <c r="B859" s="11"/>
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
       <c r="E859" s="4"/>
@@ -25155,7 +25307,7 @@
     </row>
     <row r="860" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A860" s="4"/>
-      <c r="B860" s="15"/>
+      <c r="B860" s="11"/>
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
       <c r="E860" s="4"/>
@@ -25183,7 +25335,7 @@
     </row>
     <row r="861" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A861" s="4"/>
-      <c r="B861" s="15"/>
+      <c r="B861" s="11"/>
       <c r="C861" s="4"/>
       <c r="D861" s="4"/>
       <c r="E861" s="4"/>
@@ -25211,7 +25363,7 @@
     </row>
     <row r="862" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A862" s="4"/>
-      <c r="B862" s="15"/>
+      <c r="B862" s="11"/>
       <c r="C862" s="4"/>
       <c r="D862" s="4"/>
       <c r="E862" s="4"/>
@@ -25239,7 +25391,7 @@
     </row>
     <row r="863" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A863" s="4"/>
-      <c r="B863" s="15"/>
+      <c r="B863" s="11"/>
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
       <c r="E863" s="4"/>
@@ -25267,7 +25419,7 @@
     </row>
     <row r="864" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A864" s="4"/>
-      <c r="B864" s="15"/>
+      <c r="B864" s="11"/>
       <c r="C864" s="4"/>
       <c r="D864" s="4"/>
       <c r="E864" s="4"/>
@@ -25295,7 +25447,7 @@
     </row>
     <row r="865" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A865" s="4"/>
-      <c r="B865" s="15"/>
+      <c r="B865" s="11"/>
       <c r="C865" s="4"/>
       <c r="D865" s="4"/>
       <c r="E865" s="4"/>
@@ -25323,7 +25475,7 @@
     </row>
     <row r="866" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A866" s="4"/>
-      <c r="B866" s="15"/>
+      <c r="B866" s="11"/>
       <c r="C866" s="4"/>
       <c r="D866" s="4"/>
       <c r="E866" s="4"/>
@@ -25351,7 +25503,7 @@
     </row>
     <row r="867" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A867" s="4"/>
-      <c r="B867" s="15"/>
+      <c r="B867" s="11"/>
       <c r="C867" s="4"/>
       <c r="D867" s="4"/>
       <c r="E867" s="4"/>
@@ -25379,7 +25531,7 @@
     </row>
     <row r="868" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A868" s="4"/>
-      <c r="B868" s="15"/>
+      <c r="B868" s="11"/>
       <c r="C868" s="4"/>
       <c r="D868" s="4"/>
       <c r="E868" s="4"/>
@@ -25407,7 +25559,7 @@
     </row>
     <row r="869" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A869" s="4"/>
-      <c r="B869" s="15"/>
+      <c r="B869" s="11"/>
       <c r="C869" s="4"/>
       <c r="D869" s="4"/>
       <c r="E869" s="4"/>
@@ -25435,7 +25587,7 @@
     </row>
     <row r="870" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A870" s="4"/>
-      <c r="B870" s="15"/>
+      <c r="B870" s="11"/>
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
       <c r="E870" s="4"/>
@@ -25463,7 +25615,7 @@
     </row>
     <row r="871" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A871" s="4"/>
-      <c r="B871" s="15"/>
+      <c r="B871" s="11"/>
       <c r="C871" s="4"/>
       <c r="D871" s="4"/>
       <c r="E871" s="4"/>
@@ -25491,7 +25643,7 @@
     </row>
     <row r="872" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A872" s="4"/>
-      <c r="B872" s="15"/>
+      <c r="B872" s="11"/>
       <c r="C872" s="4"/>
       <c r="D872" s="4"/>
       <c r="E872" s="4"/>
@@ -25519,7 +25671,7 @@
     </row>
     <row r="873" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A873" s="4"/>
-      <c r="B873" s="15"/>
+      <c r="B873" s="11"/>
       <c r="C873" s="4"/>
       <c r="D873" s="4"/>
       <c r="E873" s="4"/>
@@ -25547,7 +25699,7 @@
     </row>
     <row r="874" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A874" s="4"/>
-      <c r="B874" s="15"/>
+      <c r="B874" s="11"/>
       <c r="C874" s="4"/>
       <c r="D874" s="4"/>
       <c r="E874" s="4"/>
@@ -25575,7 +25727,7 @@
     </row>
     <row r="875" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A875" s="4"/>
-      <c r="B875" s="15"/>
+      <c r="B875" s="11"/>
       <c r="C875" s="4"/>
       <c r="D875" s="4"/>
       <c r="E875" s="4"/>
@@ -25603,7 +25755,7 @@
     </row>
     <row r="876" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A876" s="4"/>
-      <c r="B876" s="15"/>
+      <c r="B876" s="11"/>
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
       <c r="E876" s="4"/>
@@ -25631,7 +25783,7 @@
     </row>
     <row r="877" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A877" s="4"/>
-      <c r="B877" s="15"/>
+      <c r="B877" s="11"/>
       <c r="C877" s="4"/>
       <c r="D877" s="4"/>
       <c r="E877" s="4"/>
@@ -25659,7 +25811,7 @@
     </row>
     <row r="878" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A878" s="4"/>
-      <c r="B878" s="15"/>
+      <c r="B878" s="11"/>
       <c r="C878" s="4"/>
       <c r="D878" s="4"/>
       <c r="E878" s="4"/>
@@ -25687,7 +25839,7 @@
     </row>
     <row r="879" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A879" s="4"/>
-      <c r="B879" s="15"/>
+      <c r="B879" s="11"/>
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
       <c r="E879" s="4"/>
@@ -25715,7 +25867,7 @@
     </row>
     <row r="880" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A880" s="4"/>
-      <c r="B880" s="15"/>
+      <c r="B880" s="11"/>
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
       <c r="E880" s="4"/>
@@ -25743,7 +25895,7 @@
     </row>
     <row r="881" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A881" s="4"/>
-      <c r="B881" s="15"/>
+      <c r="B881" s="11"/>
       <c r="C881" s="4"/>
       <c r="D881" s="4"/>
       <c r="E881" s="4"/>
@@ -25771,7 +25923,7 @@
     </row>
     <row r="882" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A882" s="4"/>
-      <c r="B882" s="15"/>
+      <c r="B882" s="11"/>
       <c r="C882" s="4"/>
       <c r="D882" s="4"/>
       <c r="E882" s="4"/>
@@ -25799,7 +25951,7 @@
     </row>
     <row r="883" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A883" s="4"/>
-      <c r="B883" s="15"/>
+      <c r="B883" s="11"/>
       <c r="C883" s="4"/>
       <c r="D883" s="4"/>
       <c r="E883" s="4"/>
@@ -25827,7 +25979,7 @@
     </row>
     <row r="884" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A884" s="4"/>
-      <c r="B884" s="15"/>
+      <c r="B884" s="11"/>
       <c r="C884" s="4"/>
       <c r="D884" s="4"/>
       <c r="E884" s="4"/>
@@ -25855,7 +26007,7 @@
     </row>
     <row r="885" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A885" s="4"/>
-      <c r="B885" s="15"/>
+      <c r="B885" s="11"/>
       <c r="C885" s="4"/>
       <c r="D885" s="4"/>
       <c r="E885" s="4"/>
@@ -25883,7 +26035,7 @@
     </row>
     <row r="886" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A886" s="4"/>
-      <c r="B886" s="15"/>
+      <c r="B886" s="11"/>
       <c r="C886" s="4"/>
       <c r="D886" s="4"/>
       <c r="E886" s="4"/>
@@ -25911,7 +26063,7 @@
     </row>
     <row r="887" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A887" s="4"/>
-      <c r="B887" s="15"/>
+      <c r="B887" s="11"/>
       <c r="C887" s="4"/>
       <c r="D887" s="4"/>
       <c r="E887" s="4"/>
@@ -25939,7 +26091,7 @@
     </row>
     <row r="888" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A888" s="4"/>
-      <c r="B888" s="15"/>
+      <c r="B888" s="11"/>
       <c r="C888" s="4"/>
       <c r="D888" s="4"/>
       <c r="E888" s="4"/>
@@ -25967,7 +26119,7 @@
     </row>
     <row r="889" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A889" s="4"/>
-      <c r="B889" s="15"/>
+      <c r="B889" s="11"/>
       <c r="C889" s="4"/>
       <c r="D889" s="4"/>
       <c r="E889" s="4"/>
@@ -25995,7 +26147,7 @@
     </row>
     <row r="890" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A890" s="4"/>
-      <c r="B890" s="15"/>
+      <c r="B890" s="11"/>
       <c r="C890" s="4"/>
       <c r="D890" s="4"/>
       <c r="E890" s="4"/>
@@ -26023,7 +26175,7 @@
     </row>
     <row r="891" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A891" s="4"/>
-      <c r="B891" s="15"/>
+      <c r="B891" s="11"/>
       <c r="C891" s="4"/>
       <c r="D891" s="4"/>
       <c r="E891" s="4"/>
@@ -26051,7 +26203,7 @@
     </row>
     <row r="892" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A892" s="4"/>
-      <c r="B892" s="15"/>
+      <c r="B892" s="11"/>
       <c r="C892" s="4"/>
       <c r="D892" s="4"/>
       <c r="E892" s="4"/>
@@ -26079,7 +26231,7 @@
     </row>
     <row r="893" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A893" s="4"/>
-      <c r="B893" s="15"/>
+      <c r="B893" s="11"/>
       <c r="C893" s="4"/>
       <c r="D893" s="4"/>
       <c r="E893" s="4"/>
@@ -26107,7 +26259,7 @@
     </row>
     <row r="894" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A894" s="4"/>
-      <c r="B894" s="15"/>
+      <c r="B894" s="11"/>
       <c r="C894" s="4"/>
       <c r="D894" s="4"/>
       <c r="E894" s="4"/>
@@ -26135,7 +26287,7 @@
     </row>
     <row r="895" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A895" s="4"/>
-      <c r="B895" s="15"/>
+      <c r="B895" s="11"/>
       <c r="C895" s="4"/>
       <c r="D895" s="4"/>
       <c r="E895" s="4"/>
@@ -26163,7 +26315,7 @@
     </row>
     <row r="896" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A896" s="4"/>
-      <c r="B896" s="15"/>
+      <c r="B896" s="11"/>
       <c r="C896" s="4"/>
       <c r="D896" s="4"/>
       <c r="E896" s="4"/>
@@ -26191,7 +26343,7 @@
     </row>
     <row r="897" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A897" s="4"/>
-      <c r="B897" s="15"/>
+      <c r="B897" s="11"/>
       <c r="C897" s="4"/>
       <c r="D897" s="4"/>
       <c r="E897" s="4"/>
@@ -26219,7 +26371,7 @@
     </row>
     <row r="898" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A898" s="4"/>
-      <c r="B898" s="15"/>
+      <c r="B898" s="11"/>
       <c r="C898" s="4"/>
       <c r="D898" s="4"/>
       <c r="E898" s="4"/>
@@ -26247,7 +26399,7 @@
     </row>
     <row r="899" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A899" s="4"/>
-      <c r="B899" s="15"/>
+      <c r="B899" s="11"/>
       <c r="C899" s="4"/>
       <c r="D899" s="4"/>
       <c r="E899" s="4"/>
@@ -26275,7 +26427,7 @@
     </row>
     <row r="900" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A900" s="4"/>
-      <c r="B900" s="15"/>
+      <c r="B900" s="11"/>
       <c r="C900" s="4"/>
       <c r="D900" s="4"/>
       <c r="E900" s="4"/>
@@ -26303,7 +26455,7 @@
     </row>
     <row r="901" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A901" s="4"/>
-      <c r="B901" s="15"/>
+      <c r="B901" s="11"/>
       <c r="C901" s="4"/>
       <c r="D901" s="4"/>
       <c r="E901" s="4"/>
@@ -26331,7 +26483,7 @@
     </row>
     <row r="902" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A902" s="4"/>
-      <c r="B902" s="15"/>
+      <c r="B902" s="11"/>
       <c r="C902" s="4"/>
       <c r="D902" s="4"/>
       <c r="E902" s="4"/>
@@ -26359,7 +26511,7 @@
     </row>
     <row r="903" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A903" s="4"/>
-      <c r="B903" s="15"/>
+      <c r="B903" s="11"/>
       <c r="C903" s="4"/>
       <c r="D903" s="4"/>
       <c r="E903" s="4"/>
@@ -26387,7 +26539,7 @@
     </row>
     <row r="904" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A904" s="4"/>
-      <c r="B904" s="15"/>
+      <c r="B904" s="11"/>
       <c r="C904" s="4"/>
       <c r="D904" s="4"/>
       <c r="E904" s="4"/>
@@ -26415,7 +26567,7 @@
     </row>
     <row r="905" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A905" s="4"/>
-      <c r="B905" s="15"/>
+      <c r="B905" s="11"/>
       <c r="C905" s="4"/>
       <c r="D905" s="4"/>
       <c r="E905" s="4"/>
@@ -26443,7 +26595,7 @@
     </row>
     <row r="906" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A906" s="4"/>
-      <c r="B906" s="15"/>
+      <c r="B906" s="11"/>
       <c r="C906" s="4"/>
       <c r="D906" s="4"/>
       <c r="E906" s="4"/>
@@ -26471,7 +26623,7 @@
     </row>
     <row r="907" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A907" s="4"/>
-      <c r="B907" s="15"/>
+      <c r="B907" s="11"/>
       <c r="C907" s="4"/>
       <c r="D907" s="4"/>
       <c r="E907" s="4"/>
@@ -26499,7 +26651,7 @@
     </row>
     <row r="908" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A908" s="4"/>
-      <c r="B908" s="15"/>
+      <c r="B908" s="11"/>
       <c r="C908" s="4"/>
       <c r="D908" s="4"/>
       <c r="E908" s="4"/>
@@ -26527,7 +26679,7 @@
     </row>
     <row r="909" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A909" s="4"/>
-      <c r="B909" s="15"/>
+      <c r="B909" s="11"/>
       <c r="C909" s="4"/>
       <c r="D909" s="4"/>
       <c r="E909" s="4"/>
@@ -26555,7 +26707,7 @@
     </row>
     <row r="910" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A910" s="4"/>
-      <c r="B910" s="15"/>
+      <c r="B910" s="11"/>
       <c r="C910" s="4"/>
       <c r="D910" s="4"/>
       <c r="E910" s="4"/>
@@ -26583,7 +26735,7 @@
     </row>
     <row r="911" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A911" s="4"/>
-      <c r="B911" s="15"/>
+      <c r="B911" s="11"/>
       <c r="C911" s="4"/>
       <c r="D911" s="4"/>
       <c r="E911" s="4"/>
@@ -26611,7 +26763,7 @@
     </row>
     <row r="912" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A912" s="4"/>
-      <c r="B912" s="15"/>
+      <c r="B912" s="11"/>
       <c r="C912" s="4"/>
       <c r="D912" s="4"/>
       <c r="E912" s="4"/>
@@ -26639,7 +26791,7 @@
     </row>
     <row r="913" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A913" s="4"/>
-      <c r="B913" s="15"/>
+      <c r="B913" s="11"/>
       <c r="C913" s="4"/>
       <c r="D913" s="4"/>
       <c r="E913" s="4"/>
@@ -26667,7 +26819,7 @@
     </row>
     <row r="914" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A914" s="4"/>
-      <c r="B914" s="15"/>
+      <c r="B914" s="11"/>
       <c r="C914" s="4"/>
       <c r="D914" s="4"/>
       <c r="E914" s="4"/>
@@ -26695,7 +26847,7 @@
     </row>
     <row r="915" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A915" s="4"/>
-      <c r="B915" s="15"/>
+      <c r="B915" s="11"/>
       <c r="C915" s="4"/>
       <c r="D915" s="4"/>
       <c r="E915" s="4"/>
@@ -26723,7 +26875,7 @@
     </row>
     <row r="916" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A916" s="4"/>
-      <c r="B916" s="15"/>
+      <c r="B916" s="11"/>
       <c r="C916" s="4"/>
       <c r="D916" s="4"/>
       <c r="E916" s="4"/>
@@ -26751,7 +26903,7 @@
     </row>
     <row r="917" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A917" s="4"/>
-      <c r="B917" s="15"/>
+      <c r="B917" s="11"/>
       <c r="C917" s="4"/>
       <c r="D917" s="4"/>
       <c r="E917" s="4"/>
@@ -26779,7 +26931,7 @@
     </row>
     <row r="918" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A918" s="4"/>
-      <c r="B918" s="15"/>
+      <c r="B918" s="11"/>
       <c r="C918" s="4"/>
       <c r="D918" s="4"/>
       <c r="E918" s="4"/>
@@ -26807,7 +26959,7 @@
     </row>
     <row r="919" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A919" s="4"/>
-      <c r="B919" s="15"/>
+      <c r="B919" s="11"/>
       <c r="C919" s="4"/>
       <c r="D919" s="4"/>
       <c r="E919" s="4"/>
@@ -26835,7 +26987,7 @@
     </row>
     <row r="920" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A920" s="4"/>
-      <c r="B920" s="15"/>
+      <c r="B920" s="11"/>
       <c r="C920" s="4"/>
       <c r="D920" s="4"/>
       <c r="E920" s="4"/>
@@ -26863,7 +27015,7 @@
     </row>
     <row r="921" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A921" s="4"/>
-      <c r="B921" s="15"/>
+      <c r="B921" s="11"/>
       <c r="C921" s="4"/>
       <c r="D921" s="4"/>
       <c r="E921" s="4"/>
@@ -26891,7 +27043,7 @@
     </row>
     <row r="922" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A922" s="4"/>
-      <c r="B922" s="15"/>
+      <c r="B922" s="11"/>
       <c r="C922" s="4"/>
       <c r="D922" s="4"/>
       <c r="E922" s="4"/>
@@ -26919,7 +27071,7 @@
     </row>
     <row r="923" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A923" s="4"/>
-      <c r="B923" s="15"/>
+      <c r="B923" s="11"/>
       <c r="C923" s="4"/>
       <c r="D923" s="4"/>
       <c r="E923" s="4"/>
@@ -26947,7 +27099,7 @@
     </row>
     <row r="924" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A924" s="4"/>
-      <c r="B924" s="15"/>
+      <c r="B924" s="11"/>
       <c r="C924" s="4"/>
       <c r="D924" s="4"/>
       <c r="E924" s="4"/>
@@ -26975,7 +27127,7 @@
     </row>
     <row r="925" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A925" s="4"/>
-      <c r="B925" s="15"/>
+      <c r="B925" s="11"/>
       <c r="C925" s="4"/>
       <c r="D925" s="4"/>
       <c r="E925" s="4"/>
@@ -27003,7 +27155,7 @@
     </row>
     <row r="926" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A926" s="4"/>
-      <c r="B926" s="15"/>
+      <c r="B926" s="11"/>
       <c r="C926" s="4"/>
       <c r="D926" s="4"/>
       <c r="E926" s="4"/>
@@ -27031,7 +27183,7 @@
     </row>
     <row r="927" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A927" s="4"/>
-      <c r="B927" s="15"/>
+      <c r="B927" s="11"/>
       <c r="C927" s="4"/>
       <c r="D927" s="4"/>
       <c r="E927" s="4"/>
@@ -27059,7 +27211,7 @@
     </row>
     <row r="928" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A928" s="4"/>
-      <c r="B928" s="15"/>
+      <c r="B928" s="11"/>
       <c r="C928" s="4"/>
       <c r="D928" s="4"/>
       <c r="E928" s="4"/>
@@ -27087,7 +27239,7 @@
     </row>
     <row r="929" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A929" s="4"/>
-      <c r="B929" s="15"/>
+      <c r="B929" s="11"/>
       <c r="C929" s="4"/>
       <c r="D929" s="4"/>
       <c r="E929" s="4"/>
@@ -27115,7 +27267,7 @@
     </row>
     <row r="930" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A930" s="4"/>
-      <c r="B930" s="15"/>
+      <c r="B930" s="11"/>
       <c r="C930" s="4"/>
       <c r="D930" s="4"/>
       <c r="E930" s="4"/>
@@ -27143,7 +27295,7 @@
     </row>
     <row r="931" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A931" s="4"/>
-      <c r="B931" s="15"/>
+      <c r="B931" s="11"/>
       <c r="C931" s="4"/>
       <c r="D931" s="4"/>
       <c r="E931" s="4"/>
@@ -27171,7 +27323,7 @@
     </row>
     <row r="932" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A932" s="4"/>
-      <c r="B932" s="15"/>
+      <c r="B932" s="11"/>
       <c r="C932" s="4"/>
       <c r="D932" s="4"/>
       <c r="E932" s="4"/>
@@ -27199,7 +27351,7 @@
     </row>
     <row r="933" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A933" s="4"/>
-      <c r="B933" s="15"/>
+      <c r="B933" s="11"/>
       <c r="C933" s="4"/>
       <c r="D933" s="4"/>
       <c r="E933" s="4"/>
@@ -27227,7 +27379,7 @@
     </row>
     <row r="934" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A934" s="4"/>
-      <c r="B934" s="15"/>
+      <c r="B934" s="11"/>
       <c r="C934" s="4"/>
       <c r="D934" s="4"/>
       <c r="E934" s="4"/>
@@ -27255,7 +27407,7 @@
     </row>
     <row r="935" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A935" s="4"/>
-      <c r="B935" s="15"/>
+      <c r="B935" s="11"/>
       <c r="C935" s="4"/>
       <c r="D935" s="4"/>
       <c r="E935" s="4"/>
@@ -27283,7 +27435,7 @@
     </row>
     <row r="936" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A936" s="4"/>
-      <c r="B936" s="15"/>
+      <c r="B936" s="11"/>
       <c r="C936" s="4"/>
       <c r="D936" s="4"/>
       <c r="E936" s="4"/>
@@ -27311,7 +27463,7 @@
     </row>
     <row r="937" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A937" s="4"/>
-      <c r="B937" s="15"/>
+      <c r="B937" s="11"/>
       <c r="C937" s="4"/>
       <c r="D937" s="4"/>
       <c r="E937" s="4"/>
@@ -27339,7 +27491,7 @@
     </row>
     <row r="938" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A938" s="4"/>
-      <c r="B938" s="15"/>
+      <c r="B938" s="11"/>
       <c r="C938" s="4"/>
       <c r="D938" s="4"/>
       <c r="E938" s="4"/>
@@ -27367,7 +27519,7 @@
     </row>
     <row r="939" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A939" s="4"/>
-      <c r="B939" s="15"/>
+      <c r="B939" s="11"/>
       <c r="C939" s="4"/>
       <c r="D939" s="4"/>
       <c r="E939" s="4"/>
@@ -27395,7 +27547,7 @@
     </row>
     <row r="940" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A940" s="4"/>
-      <c r="B940" s="15"/>
+      <c r="B940" s="11"/>
       <c r="C940" s="4"/>
       <c r="D940" s="4"/>
       <c r="E940" s="4"/>
@@ -27423,7 +27575,7 @@
     </row>
     <row r="941" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A941" s="4"/>
-      <c r="B941" s="15"/>
+      <c r="B941" s="11"/>
       <c r="C941" s="4"/>
       <c r="D941" s="4"/>
       <c r="E941" s="4"/>
@@ -27451,7 +27603,7 @@
     </row>
     <row r="942" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A942" s="4"/>
-      <c r="B942" s="15"/>
+      <c r="B942" s="11"/>
       <c r="C942" s="4"/>
       <c r="D942" s="4"/>
       <c r="E942" s="4"/>
@@ -27479,7 +27631,7 @@
     </row>
     <row r="943" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A943" s="4"/>
-      <c r="B943" s="15"/>
+      <c r="B943" s="11"/>
       <c r="C943" s="4"/>
       <c r="D943" s="4"/>
       <c r="E943" s="4"/>
@@ -27507,7 +27659,7 @@
     </row>
     <row r="944" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A944" s="4"/>
-      <c r="B944" s="15"/>
+      <c r="B944" s="11"/>
       <c r="C944" s="4"/>
       <c r="D944" s="4"/>
       <c r="E944" s="4"/>
@@ -27535,7 +27687,7 @@
     </row>
     <row r="945" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A945" s="4"/>
-      <c r="B945" s="15"/>
+      <c r="B945" s="11"/>
       <c r="C945" s="4"/>
       <c r="D945" s="4"/>
       <c r="E945" s="4"/>
@@ -27563,7 +27715,7 @@
     </row>
     <row r="946" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A946" s="4"/>
-      <c r="B946" s="15"/>
+      <c r="B946" s="11"/>
       <c r="C946" s="4"/>
       <c r="D946" s="4"/>
       <c r="E946" s="4"/>
@@ -27591,7 +27743,7 @@
     </row>
     <row r="947" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A947" s="4"/>
-      <c r="B947" s="15"/>
+      <c r="B947" s="11"/>
       <c r="C947" s="4"/>
       <c r="D947" s="4"/>
       <c r="E947" s="4"/>
@@ -27619,7 +27771,7 @@
     </row>
     <row r="948" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A948" s="4"/>
-      <c r="B948" s="15"/>
+      <c r="B948" s="11"/>
       <c r="C948" s="4"/>
       <c r="D948" s="4"/>
       <c r="E948" s="4"/>
@@ -27647,7 +27799,7 @@
     </row>
     <row r="949" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A949" s="4"/>
-      <c r="B949" s="15"/>
+      <c r="B949" s="11"/>
       <c r="C949" s="4"/>
       <c r="D949" s="4"/>
       <c r="E949" s="4"/>
@@ -27675,7 +27827,7 @@
     </row>
     <row r="950" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A950" s="4"/>
-      <c r="B950" s="15"/>
+      <c r="B950" s="11"/>
       <c r="C950" s="4"/>
       <c r="D950" s="4"/>
       <c r="E950" s="4"/>
@@ -27703,7 +27855,7 @@
     </row>
     <row r="951" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A951" s="4"/>
-      <c r="B951" s="15"/>
+      <c r="B951" s="11"/>
       <c r="C951" s="4"/>
       <c r="D951" s="4"/>
       <c r="E951" s="4"/>
@@ -27731,7 +27883,7 @@
     </row>
     <row r="952" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A952" s="4"/>
-      <c r="B952" s="15"/>
+      <c r="B952" s="11"/>
       <c r="C952" s="4"/>
       <c r="D952" s="4"/>
       <c r="E952" s="4"/>
@@ -27759,7 +27911,7 @@
     </row>
     <row r="953" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A953" s="4"/>
-      <c r="B953" s="15"/>
+      <c r="B953" s="11"/>
       <c r="C953" s="4"/>
       <c r="D953" s="4"/>
       <c r="E953" s="4"/>
@@ -27787,7 +27939,7 @@
     </row>
     <row r="954" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A954" s="4"/>
-      <c r="B954" s="15"/>
+      <c r="B954" s="11"/>
       <c r="C954" s="4"/>
       <c r="D954" s="4"/>
       <c r="E954" s="4"/>
@@ -27815,7 +27967,7 @@
     </row>
     <row r="955" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A955" s="4"/>
-      <c r="B955" s="15"/>
+      <c r="B955" s="11"/>
       <c r="C955" s="4"/>
       <c r="D955" s="4"/>
       <c r="E955" s="4"/>
@@ -27843,7 +27995,7 @@
     </row>
     <row r="956" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A956" s="4"/>
-      <c r="B956" s="15"/>
+      <c r="B956" s="11"/>
       <c r="C956" s="4"/>
       <c r="D956" s="4"/>
       <c r="E956" s="4"/>
@@ -27871,7 +28023,7 @@
     </row>
     <row r="957" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A957" s="4"/>
-      <c r="B957" s="15"/>
+      <c r="B957" s="11"/>
       <c r="C957" s="4"/>
       <c r="D957" s="4"/>
       <c r="E957" s="4"/>
@@ -27899,7 +28051,7 @@
     </row>
     <row r="958" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A958" s="4"/>
-      <c r="B958" s="15"/>
+      <c r="B958" s="11"/>
       <c r="C958" s="4"/>
       <c r="D958" s="4"/>
       <c r="E958" s="4"/>
@@ -27927,7 +28079,7 @@
     </row>
     <row r="959" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A959" s="4"/>
-      <c r="B959" s="15"/>
+      <c r="B959" s="11"/>
       <c r="C959" s="4"/>
       <c r="D959" s="4"/>
       <c r="E959" s="4"/>
@@ -27955,7 +28107,7 @@
     </row>
     <row r="960" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A960" s="4"/>
-      <c r="B960" s="15"/>
+      <c r="B960" s="11"/>
       <c r="C960" s="4"/>
       <c r="D960" s="4"/>
       <c r="E960" s="4"/>
@@ -27983,7 +28135,7 @@
     </row>
     <row r="961" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A961" s="4"/>
-      <c r="B961" s="15"/>
+      <c r="B961" s="11"/>
       <c r="C961" s="4"/>
       <c r="D961" s="4"/>
       <c r="E961" s="4"/>
@@ -28011,7 +28163,7 @@
     </row>
     <row r="962" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A962" s="4"/>
-      <c r="B962" s="15"/>
+      <c r="B962" s="11"/>
       <c r="C962" s="4"/>
       <c r="D962" s="4"/>
       <c r="E962" s="4"/>
@@ -28039,7 +28191,7 @@
     </row>
     <row r="963" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A963" s="4"/>
-      <c r="B963" s="15"/>
+      <c r="B963" s="11"/>
       <c r="C963" s="4"/>
       <c r="D963" s="4"/>
       <c r="E963" s="4"/>
@@ -28067,7 +28219,7 @@
     </row>
     <row r="964" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A964" s="4"/>
-      <c r="B964" s="15"/>
+      <c r="B964" s="11"/>
       <c r="C964" s="4"/>
       <c r="D964" s="4"/>
       <c r="E964" s="4"/>
@@ -28095,7 +28247,7 @@
     </row>
     <row r="965" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A965" s="4"/>
-      <c r="B965" s="15"/>
+      <c r="B965" s="11"/>
       <c r="C965" s="4"/>
       <c r="D965" s="4"/>
       <c r="E965" s="4"/>
@@ -28123,7 +28275,7 @@
     </row>
     <row r="966" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A966" s="4"/>
-      <c r="B966" s="15"/>
+      <c r="B966" s="11"/>
       <c r="C966" s="4"/>
       <c r="D966" s="4"/>
       <c r="E966" s="4"/>
@@ -28151,7 +28303,7 @@
     </row>
     <row r="967" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A967" s="4"/>
-      <c r="B967" s="15"/>
+      <c r="B967" s="11"/>
       <c r="C967" s="4"/>
       <c r="D967" s="4"/>
       <c r="E967" s="4"/>
@@ -28179,7 +28331,7 @@
     </row>
     <row r="968" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A968" s="4"/>
-      <c r="B968" s="15"/>
+      <c r="B968" s="11"/>
       <c r="C968" s="4"/>
       <c r="D968" s="4"/>
       <c r="E968" s="4"/>
@@ -28207,7 +28359,7 @@
     </row>
     <row r="969" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A969" s="4"/>
-      <c r="B969" s="15"/>
+      <c r="B969" s="11"/>
       <c r="C969" s="4"/>
       <c r="D969" s="4"/>
       <c r="E969" s="4"/>
@@ -28235,7 +28387,7 @@
     </row>
     <row r="970" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A970" s="4"/>
-      <c r="B970" s="15"/>
+      <c r="B970" s="11"/>
       <c r="C970" s="4"/>
       <c r="D970" s="4"/>
       <c r="E970" s="4"/>
@@ -28263,7 +28415,7 @@
     </row>
     <row r="971" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A971" s="4"/>
-      <c r="B971" s="15"/>
+      <c r="B971" s="11"/>
       <c r="C971" s="4"/>
       <c r="D971" s="4"/>
       <c r="E971" s="4"/>
@@ -28291,7 +28443,7 @@
     </row>
     <row r="972" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A972" s="4"/>
-      <c r="B972" s="15"/>
+      <c r="B972" s="11"/>
       <c r="C972" s="4"/>
       <c r="D972" s="4"/>
       <c r="E972" s="4"/>
@@ -28319,7 +28471,7 @@
     </row>
     <row r="973" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A973" s="4"/>
-      <c r="B973" s="15"/>
+      <c r="B973" s="11"/>
       <c r="C973" s="4"/>
       <c r="D973" s="4"/>
       <c r="E973" s="4"/>
@@ -28347,7 +28499,7 @@
     </row>
     <row r="974" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A974" s="4"/>
-      <c r="B974" s="15"/>
+      <c r="B974" s="11"/>
       <c r="C974" s="4"/>
       <c r="D974" s="4"/>
       <c r="E974" s="4"/>
@@ -28375,7 +28527,7 @@
     </row>
     <row r="975" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A975" s="4"/>
-      <c r="B975" s="15"/>
+      <c r="B975" s="11"/>
       <c r="C975" s="4"/>
       <c r="D975" s="4"/>
       <c r="E975" s="4"/>
@@ -28403,7 +28555,7 @@
     </row>
     <row r="976" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A976" s="4"/>
-      <c r="B976" s="15"/>
+      <c r="B976" s="11"/>
       <c r="C976" s="4"/>
       <c r="D976" s="4"/>
       <c r="E976" s="4"/>
@@ -28431,7 +28583,7 @@
     </row>
     <row r="977" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A977" s="4"/>
-      <c r="B977" s="15"/>
+      <c r="B977" s="11"/>
       <c r="C977" s="4"/>
       <c r="D977" s="4"/>
       <c r="E977" s="4"/>
@@ -28459,7 +28611,7 @@
     </row>
     <row r="978" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A978" s="4"/>
-      <c r="B978" s="15"/>
+      <c r="B978" s="11"/>
       <c r="C978" s="4"/>
       <c r="D978" s="4"/>
       <c r="E978" s="4"/>
@@ -28487,7 +28639,7 @@
     </row>
     <row r="979" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A979" s="4"/>
-      <c r="B979" s="15"/>
+      <c r="B979" s="11"/>
       <c r="C979" s="4"/>
       <c r="D979" s="4"/>
       <c r="E979" s="4"/>
@@ -28515,7 +28667,7 @@
     </row>
     <row r="980" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A980" s="4"/>
-      <c r="B980" s="15"/>
+      <c r="B980" s="11"/>
       <c r="C980" s="4"/>
       <c r="D980" s="4"/>
       <c r="E980" s="4"/>
@@ -28543,7 +28695,7 @@
     </row>
     <row r="981" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A981" s="4"/>
-      <c r="B981" s="15"/>
+      <c r="B981" s="11"/>
       <c r="C981" s="4"/>
       <c r="D981" s="4"/>
       <c r="E981" s="4"/>
@@ -28571,7 +28723,7 @@
     </row>
     <row r="982" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A982" s="4"/>
-      <c r="B982" s="15"/>
+      <c r="B982" s="11"/>
       <c r="C982" s="4"/>
       <c r="D982" s="4"/>
       <c r="E982" s="4"/>
@@ -28599,7 +28751,7 @@
     </row>
     <row r="983" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A983" s="4"/>
-      <c r="B983" s="15"/>
+      <c r="B983" s="11"/>
       <c r="C983" s="4"/>
       <c r="D983" s="4"/>
       <c r="E983" s="4"/>
@@ -28627,7 +28779,7 @@
     </row>
     <row r="984" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A984" s="4"/>
-      <c r="B984" s="15"/>
+      <c r="B984" s="11"/>
       <c r="C984" s="4"/>
       <c r="D984" s="4"/>
       <c r="E984" s="4"/>
@@ -28655,7 +28807,7 @@
     </row>
     <row r="985" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A985" s="4"/>
-      <c r="B985" s="15"/>
+      <c r="B985" s="11"/>
       <c r="C985" s="4"/>
       <c r="D985" s="4"/>
       <c r="E985" s="4"/>
@@ -28683,7 +28835,7 @@
     </row>
     <row r="986" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A986" s="4"/>
-      <c r="B986" s="15"/>
+      <c r="B986" s="11"/>
       <c r="C986" s="4"/>
       <c r="D986" s="4"/>
       <c r="E986" s="4"/>
@@ -28711,7 +28863,7 @@
     </row>
     <row r="987" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A987" s="4"/>
-      <c r="B987" s="15"/>
+      <c r="B987" s="11"/>
       <c r="C987" s="4"/>
       <c r="D987" s="4"/>
       <c r="E987" s="4"/>
@@ -28739,7 +28891,7 @@
     </row>
     <row r="988" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A988" s="4"/>
-      <c r="B988" s="15"/>
+      <c r="B988" s="11"/>
       <c r="C988" s="4"/>
       <c r="D988" s="4"/>
       <c r="E988" s="4"/>
@@ -28767,7 +28919,7 @@
     </row>
     <row r="989" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A989" s="4"/>
-      <c r="B989" s="15"/>
+      <c r="B989" s="11"/>
       <c r="C989" s="4"/>
       <c r="D989" s="4"/>
       <c r="E989" s="4"/>
@@ -28795,7 +28947,7 @@
     </row>
     <row r="990" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A990" s="4"/>
-      <c r="B990" s="15"/>
+      <c r="B990" s="11"/>
       <c r="C990" s="4"/>
       <c r="D990" s="4"/>
       <c r="E990" s="4"/>
@@ -28823,7 +28975,7 @@
     </row>
     <row r="991" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A991" s="4"/>
-      <c r="B991" s="15"/>
+      <c r="B991" s="11"/>
       <c r="C991" s="4"/>
       <c r="D991" s="4"/>
       <c r="E991" s="4"/>
@@ -28851,7 +29003,7 @@
     </row>
     <row r="992" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A992" s="4"/>
-      <c r="B992" s="15"/>
+      <c r="B992" s="11"/>
       <c r="C992" s="4"/>
       <c r="D992" s="4"/>
       <c r="E992" s="4"/>
@@ -28879,7 +29031,7 @@
     </row>
     <row r="993" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A993" s="4"/>
-      <c r="B993" s="15"/>
+      <c r="B993" s="11"/>
       <c r="C993" s="4"/>
       <c r="D993" s="4"/>
       <c r="E993" s="4"/>
@@ -28907,7 +29059,7 @@
     </row>
     <row r="994" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A994" s="4"/>
-      <c r="B994" s="15"/>
+      <c r="B994" s="11"/>
       <c r="C994" s="4"/>
       <c r="D994" s="4"/>
       <c r="E994" s="4"/>
@@ -28935,7 +29087,7 @@
     </row>
     <row r="995" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A995" s="4"/>
-      <c r="B995" s="15"/>
+      <c r="B995" s="11"/>
       <c r="C995" s="4"/>
       <c r="D995" s="4"/>
       <c r="E995" s="4"/>
@@ -28962,6 +29114,16 @@
       <c r="Z995" s="4"/>
     </row>
     <row r="996" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A996" s="4"/>
+      <c r="B996" s="11"/>
+      <c r="C996" s="4"/>
+      <c r="D996" s="4"/>
+      <c r="E996" s="4"/>
+      <c r="F996" s="4"/>
+      <c r="G996" s="4"/>
+      <c r="H996" s="4"/>
+      <c r="I996" s="4"/>
+      <c r="J996" s="4"/>
       <c r="K996" s="4"/>
       <c r="L996" s="4"/>
       <c r="M996" s="4"/>
@@ -28980,6 +29142,16 @@
       <c r="Z996" s="4"/>
     </row>
     <row r="997" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A997" s="4"/>
+      <c r="B997" s="11"/>
+      <c r="C997" s="4"/>
+      <c r="D997" s="4"/>
+      <c r="E997" s="4"/>
+      <c r="F997" s="4"/>
+      <c r="G997" s="4"/>
+      <c r="H997" s="4"/>
+      <c r="I997" s="4"/>
+      <c r="J997" s="4"/>
       <c r="K997" s="4"/>
       <c r="L997" s="4"/>
       <c r="M997" s="4"/>
@@ -28998,6 +29170,16 @@
       <c r="Z997" s="4"/>
     </row>
     <row r="998" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A998" s="4"/>
+      <c r="B998" s="11"/>
+      <c r="C998" s="4"/>
+      <c r="D998" s="4"/>
+      <c r="E998" s="4"/>
+      <c r="F998" s="4"/>
+      <c r="G998" s="4"/>
+      <c r="H998" s="4"/>
+      <c r="I998" s="4"/>
+      <c r="J998" s="4"/>
       <c r="K998" s="4"/>
       <c r="L998" s="4"/>
       <c r="M998" s="4"/>
@@ -29015,6 +29197,116 @@
       <c r="Y998" s="4"/>
       <c r="Z998" s="4"/>
     </row>
+    <row r="999" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A999" s="4"/>
+      <c r="B999" s="11"/>
+      <c r="C999" s="4"/>
+      <c r="D999" s="4"/>
+      <c r="E999" s="4"/>
+      <c r="F999" s="4"/>
+      <c r="G999" s="4"/>
+      <c r="H999" s="4"/>
+      <c r="I999" s="4"/>
+      <c r="J999" s="4"/>
+      <c r="K999" s="4"/>
+      <c r="L999" s="4"/>
+      <c r="M999" s="4"/>
+      <c r="N999" s="4"/>
+      <c r="O999" s="4"/>
+      <c r="P999" s="4"/>
+      <c r="Q999" s="4"/>
+      <c r="R999" s="4"/>
+      <c r="S999" s="4"/>
+      <c r="T999" s="4"/>
+      <c r="U999" s="4"/>
+      <c r="V999" s="4"/>
+      <c r="W999" s="4"/>
+      <c r="X999" s="4"/>
+      <c r="Y999" s="4"/>
+      <c r="Z999" s="4"/>
+    </row>
+    <row r="1000" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1000" s="4"/>
+      <c r="B1000" s="11"/>
+      <c r="C1000" s="4"/>
+      <c r="D1000" s="4"/>
+      <c r="E1000" s="4"/>
+      <c r="F1000" s="4"/>
+      <c r="G1000" s="4"/>
+      <c r="H1000" s="4"/>
+      <c r="I1000" s="4"/>
+      <c r="J1000" s="4"/>
+      <c r="K1000" s="4"/>
+      <c r="L1000" s="4"/>
+      <c r="M1000" s="4"/>
+      <c r="N1000" s="4"/>
+      <c r="O1000" s="4"/>
+      <c r="P1000" s="4"/>
+      <c r="Q1000" s="4"/>
+      <c r="R1000" s="4"/>
+      <c r="S1000" s="4"/>
+      <c r="T1000" s="4"/>
+      <c r="U1000" s="4"/>
+      <c r="V1000" s="4"/>
+      <c r="W1000" s="4"/>
+      <c r="X1000" s="4"/>
+      <c r="Y1000" s="4"/>
+      <c r="Z1000" s="4"/>
+    </row>
+    <row r="1001" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K1001" s="4"/>
+      <c r="L1001" s="4"/>
+      <c r="M1001" s="4"/>
+      <c r="N1001" s="4"/>
+      <c r="O1001" s="4"/>
+      <c r="P1001" s="4"/>
+      <c r="Q1001" s="4"/>
+      <c r="R1001" s="4"/>
+      <c r="S1001" s="4"/>
+      <c r="T1001" s="4"/>
+      <c r="U1001" s="4"/>
+      <c r="V1001" s="4"/>
+      <c r="W1001" s="4"/>
+      <c r="X1001" s="4"/>
+      <c r="Y1001" s="4"/>
+      <c r="Z1001" s="4"/>
+    </row>
+    <row r="1002" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K1002" s="4"/>
+      <c r="L1002" s="4"/>
+      <c r="M1002" s="4"/>
+      <c r="N1002" s="4"/>
+      <c r="O1002" s="4"/>
+      <c r="P1002" s="4"/>
+      <c r="Q1002" s="4"/>
+      <c r="R1002" s="4"/>
+      <c r="S1002" s="4"/>
+      <c r="T1002" s="4"/>
+      <c r="U1002" s="4"/>
+      <c r="V1002" s="4"/>
+      <c r="W1002" s="4"/>
+      <c r="X1002" s="4"/>
+      <c r="Y1002" s="4"/>
+      <c r="Z1002" s="4"/>
+    </row>
+    <row r="1003" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K1003" s="4"/>
+      <c r="L1003" s="4"/>
+      <c r="M1003" s="4"/>
+      <c r="N1003" s="4"/>
+      <c r="O1003" s="4"/>
+      <c r="P1003" s="4"/>
+      <c r="Q1003" s="4"/>
+      <c r="R1003" s="4"/>
+      <c r="S1003" s="4"/>
+      <c r="T1003" s="4"/>
+      <c r="U1003" s="4"/>
+      <c r="V1003" s="4"/>
+      <c r="W1003" s="4"/>
+      <c r="X1003" s="4"/>
+      <c r="Y1003" s="4"/>
+      <c r="Z1003" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
